--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29024"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19277BA-A8A6-4E66-9367-8A6742189E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75DA301-336B-429F-90C6-D0DCAA276A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Players!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -7009,11 +7010,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1896"/>
+  <dimension ref="A1:N1866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1865" sqref="A1865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87059,202 +87060,14 @@
       </c>
     </row>
     <row r="1865" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1865" t="e">
-        <f>VLOOKUP(B1865,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
       <c r="N1865" t="e">
         <f>VLOOKUP(B1865,Teams!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="1866" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1866" t="e">
-        <f>VLOOKUP(B1866,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
       <c r="N1866" t="e">
         <f>VLOOKUP(B1866,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1867" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1867" t="e">
-        <f>VLOOKUP(B1867,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1868" t="e">
-        <f>VLOOKUP(B1868,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1869" t="e">
-        <f>VLOOKUP(B1869,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1870" t="e">
-        <f>VLOOKUP(B1870,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1871" t="e">
-        <f>VLOOKUP(B1871,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1872" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1872" t="e">
-        <f>VLOOKUP(B1872,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1873" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1873" t="e">
-        <f>VLOOKUP(B1873,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1874" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1874" t="e">
-        <f>VLOOKUP(B1874,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1875" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1875" t="e">
-        <f>VLOOKUP(B1875,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1876" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1876" t="e">
-        <f>VLOOKUP(B1876,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1877" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1877" t="e">
-        <f>VLOOKUP(B1877,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1878" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1878" t="e">
-        <f>VLOOKUP(B1878,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1879" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1879" t="e">
-        <f>VLOOKUP(B1879,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1880" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1880" t="e">
-        <f>VLOOKUP(B1880,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1881" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1881" t="e">
-        <f>VLOOKUP(B1881,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1882" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1882" t="e">
-        <f>VLOOKUP(B1882,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1883" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1883" t="e">
-        <f>VLOOKUP(B1883,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1884" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1884" t="e">
-        <f>VLOOKUP(B1884,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1885" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1885" t="e">
-        <f>VLOOKUP(B1885,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1886" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1886" t="e">
-        <f>VLOOKUP(B1886,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1887" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1887" t="e">
-        <f>VLOOKUP(B1887,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1888" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1888" t="e">
-        <f>VLOOKUP(B1888,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1889" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1889" t="e">
-        <f>VLOOKUP(B1889,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1890" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1890" t="e">
-        <f>VLOOKUP(B1890,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1891" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1891" t="e">
-        <f>VLOOKUP(B1891,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1892" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1892" t="e">
-        <f>VLOOKUP(B1892,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1893" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1893" t="e">
-        <f>VLOOKUP(B1893,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1894" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1894" t="e">
-        <f>VLOOKUP(B1894,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1895" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1895" t="e">
-        <f>VLOOKUP(B1895,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1896" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1896" t="e">
-        <f>VLOOKUP(B1896,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75DA301-336B-429F-90C6-D0DCAA276A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F2EA7F-3B9A-498D-940F-E2B7CAB683F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Players!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22330" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22340" uniqueCount="2198">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6630,6 +6629,9 @@
   </si>
   <si>
     <t>tm</t>
+  </si>
+  <si>
+    <t>Shawn Schreier</t>
   </si>
 </sst>
 </file>
@@ -7012,9 +7014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1866"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1865" sqref="A1865"/>
+      <selection pane="bottomLeft" activeCell="G1866" sqref="G1866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87060,9 +87062,49 @@
       </c>
     </row>
     <row r="1865" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N1865" t="e">
+      <c r="A1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1865" t="str">
+        <f>VLOOKUP(B1865,Teams!$A:$B,2,FALSE)</f>
+        <v>Minnesota Twins</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1865">
+        <v>123456</v>
+      </c>
+      <c r="F1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G1865" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="I1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="K1865">
+        <v>999999</v>
+      </c>
+      <c r="L1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="M1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="N1865" t="str">
         <f>VLOOKUP(B1865,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="1866" spans="1:14" x14ac:dyDescent="0.3">

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F2EA7F-3B9A-498D-940F-E2B7CAB683F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1462DAEA-123D-481D-BB6C-D9F3E6E0AABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -7012,11 +7012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1866"/>
+  <dimension ref="A1:N1865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1866" sqref="G1866"/>
+      <selection pane="bottomLeft" activeCell="A1863" sqref="A1863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87076,7 +87076,7 @@
         <v>10</v>
       </c>
       <c r="E1865">
-        <v>123456</v>
+        <v>99999</v>
       </c>
       <c r="F1865" t="s">
         <v>2197</v>
@@ -87105,12 +87105,6 @@
       <c r="N1865" t="str">
         <f>VLOOKUP(B1865,Teams!A:C,3,FALSE)</f>
         <v>Minnesota</v>
-      </c>
-    </row>
-    <row r="1866" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N1866" t="e">
-        <f>VLOOKUP(B1866,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1462DAEA-123D-481D-BB6C-D9F3E6E0AABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5461CA-F833-4343-B234-A33A8E158824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22340" uniqueCount="2198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22350" uniqueCount="2199">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6632,6 +6632,9 @@
   </si>
   <si>
     <t>Shawn Schreier</t>
+  </si>
+  <si>
+    <t>Tanner Schreier</t>
   </si>
 </sst>
 </file>
@@ -7012,11 +7015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1865"/>
+  <dimension ref="A1:N1866"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1863" sqref="A1863"/>
+      <selection pane="bottomLeft" activeCell="E1867" sqref="E1867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87104,6 +87107,52 @@
       </c>
       <c r="N1865" t="str">
         <f>VLOOKUP(B1865,Teams!A:C,3,FALSE)</f>
+        <v>Minnesota</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1866" t="str">
+        <f>VLOOKUP(B1866,Teams!$A:$B,2,FALSE)</f>
+        <v>Minnesota Twins</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1866">
+        <v>88888</v>
+      </c>
+      <c r="F1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G1866" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="J1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="K1866">
+        <v>888888</v>
+      </c>
+      <c r="L1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="M1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="N1866" t="str">
+        <f>VLOOKUP(B1866,Teams!A:C,3,FALSE)</f>
         <v>Minnesota</v>
       </c>
     </row>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5461CA-F833-4343-B234-A33A8E158824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3922E-423A-458F-985E-1E0A8BACF523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22350" uniqueCount="2199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22360" uniqueCount="2200">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6635,6 +6635,9 @@
   </si>
   <si>
     <t>Tanner Schreier</t>
+  </si>
+  <si>
+    <t>Andrea Schreier</t>
   </si>
 </sst>
 </file>
@@ -7015,11 +7018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1866"/>
+  <dimension ref="A1:N1867"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1867" sqref="E1867"/>
+      <selection pane="bottomLeft" activeCell="A1866" sqref="A1866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87154,6 +87157,48 @@
       <c r="N1866" t="str">
         <f>VLOOKUP(B1866,Teams!A:C,3,FALSE)</f>
         <v>Minnesota</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1867" t="str">
+        <f>VLOOKUP(B1867,Teams!$A:$B,2,FALSE)</f>
+        <v>Minnesota Twins</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1867">
+        <v>77777</v>
+      </c>
+      <c r="F1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G1867" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="J1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="K1867">
+        <v>777777</v>
+      </c>
+      <c r="L1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="M1867" t="s">
+        <v>2199</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B3922E-423A-458F-985E-1E0A8BACF523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC0BF38-91AF-4373-ADC1-3F48189C9BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22360" uniqueCount="2200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22370" uniqueCount="2201">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6638,6 +6638,9 @@
   </si>
   <si>
     <t>Andrea Schreier</t>
+  </si>
+  <si>
+    <t>Lyla Schreier</t>
   </si>
 </sst>
 </file>
@@ -7018,11 +7021,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1867"/>
+  <dimension ref="A1:N1868"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1866" sqref="A1866"/>
+      <selection pane="bottomLeft" activeCell="G1869" sqref="G1869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87199,6 +87202,56 @@
       </c>
       <c r="M1867" t="s">
         <v>2199</v>
+      </c>
+      <c r="N1867" t="str">
+        <f>VLOOKUP(B1867,Teams!A:C,3,FALSE)</f>
+        <v>Minnesota</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1868" t="str">
+        <f>VLOOKUP(B1868,Teams!$A:$B,2,FALSE)</f>
+        <v>Minnesota Twins</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1868">
+        <v>66666</v>
+      </c>
+      <c r="F1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G1868" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="J1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="K1868">
+        <v>666666</v>
+      </c>
+      <c r="L1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="M1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="N1868" t="str">
+        <f>VLOOKUP(B1868,Teams!A:C,3,FALSE)</f>
+        <v>Minnesota</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC0BF38-91AF-4373-ADC1-3F48189C9BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C157A-7523-4AD1-BABC-3C78B68B2566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22370" uniqueCount="2201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22360" uniqueCount="2200">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6638,9 +6638,6 @@
   </si>
   <si>
     <t>Andrea Schreier</t>
-  </si>
-  <si>
-    <t>Lyla Schreier</t>
   </si>
 </sst>
 </file>
@@ -7021,11 +7018,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1868"/>
+  <dimension ref="A1:N1867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1869" sqref="G1869"/>
+      <selection pane="bottomLeft" activeCell="A1868" sqref="A1868:XFD1868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87205,52 +87202,6 @@
       </c>
       <c r="N1867" t="str">
         <f>VLOOKUP(B1867,Teams!A:C,3,FALSE)</f>
-        <v>Minnesota</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1868" t="s">
-        <v>2200</v>
-      </c>
-      <c r="B1868" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1868" t="str">
-        <f>VLOOKUP(B1868,Teams!$A:$B,2,FALSE)</f>
-        <v>Minnesota Twins</v>
-      </c>
-      <c r="D1868" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1868">
-        <v>66666</v>
-      </c>
-      <c r="F1868" t="s">
-        <v>2200</v>
-      </c>
-      <c r="G1868" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1868" t="s">
-        <v>2200</v>
-      </c>
-      <c r="I1868" t="s">
-        <v>2200</v>
-      </c>
-      <c r="J1868" t="s">
-        <v>2200</v>
-      </c>
-      <c r="K1868">
-        <v>666666</v>
-      </c>
-      <c r="L1868" t="s">
-        <v>2200</v>
-      </c>
-      <c r="M1868" t="s">
-        <v>2200</v>
-      </c>
-      <c r="N1868" t="str">
-        <f>VLOOKUP(B1868,Teams!A:C,3,FALSE)</f>
         <v>Minnesota</v>
       </c>
     </row>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C157A-7523-4AD1-BABC-3C78B68B2566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF7318-FAD2-4B29-A57B-89AD2E2CE6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22360" uniqueCount="2200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22361" uniqueCount="2201">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6638,6 +6638,9 @@
   </si>
   <si>
     <t>Andrea Schreier</t>
+  </si>
+  <si>
+    <t>John Doe</t>
   </si>
 </sst>
 </file>
@@ -7018,11 +7021,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1867"/>
+  <dimension ref="A1:N1868"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1868" sqref="A1868:XFD1868"/>
+      <selection pane="bottomLeft" activeCell="K1869" sqref="K1869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87203,6 +87206,14 @@
       <c r="N1867" t="str">
         <f>VLOOKUP(B1867,Teams!A:C,3,FALSE)</f>
         <v>Minnesota</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="K1868">
+        <v>666666</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF7318-FAD2-4B29-A57B-89AD2E2CE6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A14D7-9517-40AB-B3F5-12EB421D1EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6640,7 +6640,7 @@
     <t>Andrea Schreier</t>
   </si>
   <si>
-    <t>John Doe</t>
+    <t>Bob Dylan</t>
   </si>
 </sst>
 </file>
@@ -7023,9 +7023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1868"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1869" sqref="K1869"/>
+      <selection pane="bottomLeft" activeCell="L1868" sqref="L1868"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A14D7-9517-40AB-B3F5-12EB421D1EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5565D0ED-75C9-4017-9D5D-0672BC6BB323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22361" uniqueCount="2201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22362" uniqueCount="2202">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6641,6 +6641,9 @@
   </si>
   <si>
     <t>Bob Dylan</t>
+  </si>
+  <si>
+    <t>John Doe</t>
   </si>
 </sst>
 </file>
@@ -7021,11 +7024,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1868"/>
+  <dimension ref="A1:N1869"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1868" sqref="L1868"/>
+      <selection pane="bottomLeft" activeCell="A1870" sqref="A1870"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87214,6 +87217,11 @@
       </c>
       <c r="K1868">
         <v>666666</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1869" t="s">
+        <v>2201</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5565D0ED-75C9-4017-9D5D-0672BC6BB323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC09C21-881F-41AD-B89A-86405C690F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6643,7 +6643,7 @@
     <t>Bob Dylan</t>
   </si>
   <si>
-    <t>John Doe</t>
+    <t>Ringo Star</t>
   </si>
 </sst>
 </file>
@@ -7028,7 +7028,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1870" sqref="A1870"/>
+      <selection pane="bottomLeft" activeCell="E1869" sqref="E1869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC09C21-881F-41AD-B89A-86405C690F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CFBECA-7877-4C14-B317-B59CF55D6165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22362" uniqueCount="2202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22363" uniqueCount="2203">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6643,7 +6643,10 @@
     <t>Bob Dylan</t>
   </si>
   <si>
-    <t>Ringo Star</t>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Ringo Starr</t>
   </si>
 </sst>
 </file>
@@ -7024,11 +7027,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1869"/>
+  <dimension ref="A1:N1870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1869" sqref="E1869"/>
+      <selection pane="bottomLeft" activeCell="A1871" sqref="A1871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87222,6 +87225,11 @@
     <row r="1869" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1869" t="s">
         <v>2201</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1870" t="s">
+        <v>2202</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CFBECA-7877-4C14-B317-B59CF55D6165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD25D96E-6190-4B3C-9FE9-254DB2181716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22363" uniqueCount="2203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22364" uniqueCount="2204">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6647,6 +6647,9 @@
   </si>
   <si>
     <t>Ringo Starr</t>
+  </si>
+  <si>
+    <t>Garth Brooks</t>
   </si>
 </sst>
 </file>
@@ -7027,11 +7030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1870"/>
+  <dimension ref="A1:N1871"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1871" sqref="A1871"/>
+      <selection pane="bottomLeft" activeCell="A1872" sqref="A1872"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87230,6 +87233,11 @@
     <row r="1870" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1870" t="s">
         <v>2202</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1871" t="s">
+        <v>2203</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD25D96E-6190-4B3C-9FE9-254DB2181716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49190AFA-7685-4A91-B9CF-C221292B4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7032,9 +7032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1871"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1872" sqref="A1872"/>
+      <selection pane="bottomLeft" activeCell="K1871" sqref="K1871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87234,10 +87234,16 @@
       <c r="A1870" t="s">
         <v>2202</v>
       </c>
+      <c r="K1870">
+        <v>654321</v>
+      </c>
     </row>
     <row r="1871" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1871" t="s">
         <v>2203</v>
+      </c>
+      <c r="K1871">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49190AFA-7685-4A91-B9CF-C221292B4B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8542703-8A25-4A10-BFA4-CCD1ADCC6CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22364" uniqueCount="2204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22365" uniqueCount="2205">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6650,6 +6650,9 @@
   </si>
   <si>
     <t>Garth Brooks</t>
+  </si>
+  <si>
+    <t>Austin Powers</t>
   </si>
 </sst>
 </file>
@@ -7030,11 +7033,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1871"/>
+  <dimension ref="A1:N1872"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1871" sqref="K1871"/>
+      <selection pane="bottomLeft" activeCell="A1873" sqref="A1873"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87244,6 +87247,14 @@
       </c>
       <c r="K1871">
         <v>123456</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1872" t="s">
+        <v>2204</v>
+      </c>
+      <c r="K1872">
+        <v>222222</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8542703-8A25-4A10-BFA4-CCD1ADCC6CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2C314F-69CB-4FEC-8D63-5E19E0BDBE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22365" uniqueCount="2205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22366" uniqueCount="2206">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6653,6 +6653,9 @@
   </si>
   <si>
     <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>Billy Bob Thornton</t>
   </si>
 </sst>
 </file>
@@ -7033,11 +7036,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1872"/>
+  <dimension ref="A1:N1873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1873" sqref="A1873"/>
+      <selection pane="bottomLeft" activeCell="A1874" sqref="A1874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87255,6 +87258,14 @@
       </c>
       <c r="K1872">
         <v>222222</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1873" t="s">
+        <v>2205</v>
+      </c>
+      <c r="K1873">
+        <v>348242</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2C314F-69CB-4FEC-8D63-5E19E0BDBE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935A8D68-1279-479E-8A3E-2C41AD30F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22366" uniqueCount="2206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22367" uniqueCount="2207">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6656,6 +6656,9 @@
   </si>
   <si>
     <t>Billy Bob Thornton</t>
+  </si>
+  <si>
+    <t>Mike Jones</t>
   </si>
 </sst>
 </file>
@@ -7036,11 +7039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1873"/>
+  <dimension ref="A1:N1874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1874" sqref="A1874"/>
+      <selection pane="bottomLeft" activeCell="A1875" sqref="A1875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87266,6 +87269,14 @@
       </c>
       <c r="K1873">
         <v>348242</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1874" t="s">
+        <v>2206</v>
+      </c>
+      <c r="K1874">
+        <v>347243</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935A8D68-1279-479E-8A3E-2C41AD30F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD5D707-501B-4FD6-B87D-BF483882468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22367" uniqueCount="2207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22368" uniqueCount="2208">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6659,6 +6659,9 @@
   </si>
   <si>
     <t>Mike Jones</t>
+  </si>
+  <si>
+    <t>Tj whosyourmama</t>
   </si>
 </sst>
 </file>
@@ -7039,11 +7042,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1874"/>
+  <dimension ref="A1:N1875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1875" sqref="A1875"/>
+      <selection pane="bottomLeft" activeCell="A1876" sqref="A1876"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87277,6 +87280,14 @@
       </c>
       <c r="K1874">
         <v>347243</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1875" t="s">
+        <v>2207</v>
+      </c>
+      <c r="K1875">
+        <v>843434</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD5D707-501B-4FD6-B87D-BF483882468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60917553-C46A-402F-B66F-9B56F3153879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22368" uniqueCount="2208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22369" uniqueCount="2209">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6662,6 +6662,9 @@
   </si>
   <si>
     <t>Tj whosyourmama</t>
+  </si>
+  <si>
+    <t>Raising Cane</t>
   </si>
 </sst>
 </file>
@@ -7042,11 +7045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1875"/>
+  <dimension ref="A1:N1876"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1876" sqref="A1876"/>
+      <selection pane="bottomLeft" activeCell="K1877" sqref="K1877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87288,6 +87291,14 @@
       </c>
       <c r="K1875">
         <v>843434</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1876" t="s">
+        <v>2208</v>
+      </c>
+      <c r="K1876">
+        <v>492887</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60917553-C46A-402F-B66F-9B56F3153879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0178CB-DCEC-4476-A4A4-AE35FA5F2824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22369" uniqueCount="2209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22370" uniqueCount="2210">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6665,6 +6665,9 @@
   </si>
   <si>
     <t>Raising Cane</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
   </si>
 </sst>
 </file>
@@ -7045,11 +7048,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1876"/>
+  <dimension ref="A1:N1877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1877" sqref="K1877"/>
+      <selection pane="bottomLeft" activeCell="A1878" sqref="A1878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87299,6 +87302,14 @@
       </c>
       <c r="K1876">
         <v>492887</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1877" t="s">
+        <v>2209</v>
+      </c>
+      <c r="K1877">
+        <v>102212</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0178CB-DCEC-4476-A4A4-AE35FA5F2824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F526D04A-D9BB-498B-9A6B-D792007851CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22370" uniqueCount="2210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22371" uniqueCount="2211">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6668,6 +6668,9 @@
   </si>
   <si>
     <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>Mary Jane</t>
   </si>
 </sst>
 </file>
@@ -7048,11 +7051,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1877"/>
+  <dimension ref="A1:N1878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1878" sqref="A1878"/>
+      <selection pane="bottomLeft" activeCell="A1879" sqref="A1879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87310,6 +87313,14 @@
       </c>
       <c r="K1877">
         <v>102212</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1878" t="s">
+        <v>2210</v>
+      </c>
+      <c r="K1878">
+        <v>112514</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F526D04A-D9BB-498B-9A6B-D792007851CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB25C3-E3B6-4D3D-9AFF-F68BEC697F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22371" uniqueCount="2211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22382" uniqueCount="2211">
   <si>
     <t>mlb_name</t>
   </si>
@@ -7053,9 +7053,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1878"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1879" sqref="A1879"/>
+      <selection pane="bottomLeft" activeCell="N1879" sqref="N1879"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87250,6 +87250,9 @@
       <c r="A1869" t="s">
         <v>2201</v>
       </c>
+      <c r="K1869">
+        <v>727272</v>
+      </c>
     </row>
     <row r="1870" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1870" t="s">
@@ -87275,7 +87278,7 @@
         <v>222222</v>
       </c>
     </row>
-    <row r="1873" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1873" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1873" t="s">
         <v>2205</v>
       </c>
@@ -87283,7 +87286,7 @@
         <v>348242</v>
       </c>
     </row>
-    <row r="1874" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1874" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1874" t="s">
         <v>2206</v>
       </c>
@@ -87291,7 +87294,7 @@
         <v>347243</v>
       </c>
     </row>
-    <row r="1875" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1875" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1875" t="s">
         <v>2207</v>
       </c>
@@ -87299,7 +87302,7 @@
         <v>843434</v>
       </c>
     </row>
-    <row r="1876" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1876" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1876" t="s">
         <v>2208</v>
       </c>
@@ -87307,7 +87310,7 @@
         <v>492887</v>
       </c>
     </row>
-    <row r="1877" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1877" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1877" t="s">
         <v>2209</v>
       </c>
@@ -87315,12 +87318,48 @@
         <v>102212</v>
       </c>
     </row>
-    <row r="1878" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1878" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1878" t="s">
         <v>2210</v>
       </c>
+      <c r="B1878" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1878">
+        <v>12345</v>
+      </c>
+      <c r="F1878" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G1878" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1878" t="s">
+        <v>2210</v>
+      </c>
+      <c r="I1878" t="s">
+        <v>2210</v>
+      </c>
+      <c r="J1878" t="s">
+        <v>2210</v>
+      </c>
       <c r="K1878">
         <v>112514</v>
+      </c>
+      <c r="L1878" t="s">
+        <v>2210</v>
+      </c>
+      <c r="M1878" t="s">
+        <v>2210</v>
+      </c>
+      <c r="N1878" t="s">
+        <v>2097</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB25C3-E3B6-4D3D-9AFF-F68BEC697F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B319D5-A1C2-45F0-BE90-1209FD27CCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22382" uniqueCount="2211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22340" uniqueCount="2198">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6631,46 +6631,7 @@
     <t>tm</t>
   </si>
   <si>
-    <t>Shawn Schreier</t>
-  </si>
-  <si>
-    <t>Tanner Schreier</t>
-  </si>
-  <si>
-    <t>Andrea Schreier</t>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Ringo Starr</t>
-  </si>
-  <si>
-    <t>Garth Brooks</t>
-  </si>
-  <si>
-    <t>Austin Powers</t>
-  </si>
-  <si>
-    <t>Billy Bob Thornton</t>
-  </si>
-  <si>
-    <t>Mike Jones</t>
-  </si>
-  <si>
-    <t>Tj whosyourmama</t>
-  </si>
-  <si>
-    <t>Raising Cane</t>
-  </si>
-  <si>
-    <t>Clark Kent</t>
-  </si>
-  <si>
-    <t>Mary Jane</t>
+    <t>Thomas Jefferson</t>
   </si>
 </sst>
 </file>
@@ -7051,11 +7012,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1878"/>
+  <dimension ref="A1:N1865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1860" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1879" sqref="N1879"/>
+      <selection pane="bottomLeft" activeCell="G1866" sqref="G1866"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -87115,7 +87076,7 @@
         <v>10</v>
       </c>
       <c r="E1865">
-        <v>99999</v>
+        <v>91140</v>
       </c>
       <c r="F1865" t="s">
         <v>2197</v>
@@ -87133,7 +87094,7 @@
         <v>2197</v>
       </c>
       <c r="K1865">
-        <v>999999</v>
+        <v>987123</v>
       </c>
       <c r="L1865" t="s">
         <v>2197</v>
@@ -87144,222 +87105,6 @@
       <c r="N1865" t="str">
         <f>VLOOKUP(B1865,Teams!A:C,3,FALSE)</f>
         <v>Minnesota</v>
-      </c>
-    </row>
-    <row r="1866" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1866" t="s">
-        <v>2198</v>
-      </c>
-      <c r="B1866" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1866" t="str">
-        <f>VLOOKUP(B1866,Teams!$A:$B,2,FALSE)</f>
-        <v>Minnesota Twins</v>
-      </c>
-      <c r="D1866" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1866">
-        <v>88888</v>
-      </c>
-      <c r="F1866" t="s">
-        <v>2198</v>
-      </c>
-      <c r="G1866" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1866" t="s">
-        <v>2198</v>
-      </c>
-      <c r="I1866" t="s">
-        <v>2198</v>
-      </c>
-      <c r="J1866" t="s">
-        <v>2198</v>
-      </c>
-      <c r="K1866">
-        <v>888888</v>
-      </c>
-      <c r="L1866" t="s">
-        <v>2198</v>
-      </c>
-      <c r="M1866" t="s">
-        <v>2198</v>
-      </c>
-      <c r="N1866" t="str">
-        <f>VLOOKUP(B1866,Teams!A:C,3,FALSE)</f>
-        <v>Minnesota</v>
-      </c>
-    </row>
-    <row r="1867" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1867" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B1867" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1867" t="str">
-        <f>VLOOKUP(B1867,Teams!$A:$B,2,FALSE)</f>
-        <v>Minnesota Twins</v>
-      </c>
-      <c r="D1867" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1867">
-        <v>77777</v>
-      </c>
-      <c r="F1867" t="s">
-        <v>2199</v>
-      </c>
-      <c r="G1867" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1867" t="s">
-        <v>2199</v>
-      </c>
-      <c r="I1867" t="s">
-        <v>2199</v>
-      </c>
-      <c r="J1867" t="s">
-        <v>2199</v>
-      </c>
-      <c r="K1867">
-        <v>777777</v>
-      </c>
-      <c r="L1867" t="s">
-        <v>2199</v>
-      </c>
-      <c r="M1867" t="s">
-        <v>2199</v>
-      </c>
-      <c r="N1867" t="str">
-        <f>VLOOKUP(B1867,Teams!A:C,3,FALSE)</f>
-        <v>Minnesota</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1868" t="s">
-        <v>2200</v>
-      </c>
-      <c r="K1868">
-        <v>666666</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1869" t="s">
-        <v>2201</v>
-      </c>
-      <c r="K1869">
-        <v>727272</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1870" t="s">
-        <v>2202</v>
-      </c>
-      <c r="K1870">
-        <v>654321</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1871" t="s">
-        <v>2203</v>
-      </c>
-      <c r="K1871">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="1872" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1872" t="s">
-        <v>2204</v>
-      </c>
-      <c r="K1872">
-        <v>222222</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1873" t="s">
-        <v>2205</v>
-      </c>
-      <c r="K1873">
-        <v>348242</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1874" t="s">
-        <v>2206</v>
-      </c>
-      <c r="K1874">
-        <v>347243</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1875" t="s">
-        <v>2207</v>
-      </c>
-      <c r="K1875">
-        <v>843434</v>
-      </c>
-    </row>
-    <row r="1876" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1876" t="s">
-        <v>2208</v>
-      </c>
-      <c r="K1876">
-        <v>492887</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1877" t="s">
-        <v>2209</v>
-      </c>
-      <c r="K1877">
-        <v>102212</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1878" t="s">
-        <v>2210</v>
-      </c>
-      <c r="B1878" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1878" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1878" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1878">
-        <v>12345</v>
-      </c>
-      <c r="F1878" t="s">
-        <v>2210</v>
-      </c>
-      <c r="G1878" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1878" t="s">
-        <v>2210</v>
-      </c>
-      <c r="I1878" t="s">
-        <v>2210</v>
-      </c>
-      <c r="J1878" t="s">
-        <v>2210</v>
-      </c>
-      <c r="K1878">
-        <v>112514</v>
-      </c>
-      <c r="L1878" t="s">
-        <v>2210</v>
-      </c>
-      <c r="M1878" t="s">
-        <v>2210</v>
-      </c>
-      <c r="N1878" t="s">
-        <v>2097</v>
       </c>
     </row>
   </sheetData>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C8469A-C28B-48CB-8AE3-8F374842819B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F65F68-3EE8-408C-B493-AEF95C6E4F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1620" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22361" uniqueCount="2198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22373" uniqueCount="2199">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6614,6 +6614,9 @@
   </si>
   <si>
     <t>Big Pimpin</t>
+  </si>
+  <si>
+    <t>Big Daddy</t>
   </si>
 </sst>
 </file>
@@ -6981,10 +6984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1861"/>
+  <dimension ref="A1:N1862"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1840" workbookViewId="0">
-      <selection activeCell="G1862" sqref="G1862"/>
+    <sheetView tabSelected="1" topLeftCell="A1842" workbookViewId="0">
+      <selection activeCell="N1862" sqref="N1862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84952,6 +84955,50 @@
         <v>2184</v>
       </c>
     </row>
+    <row r="1862" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1862" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E1862">
+        <v>88888</v>
+      </c>
+      <c r="F1862" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G1862" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H1862" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I1862" t="s">
+        <v>2198</v>
+      </c>
+      <c r="J1862" t="s">
+        <v>2198</v>
+      </c>
+      <c r="K1862">
+        <v>888888</v>
+      </c>
+      <c r="L1862" t="s">
+        <v>2198</v>
+      </c>
+      <c r="M1862" t="s">
+        <v>2198</v>
+      </c>
+      <c r="N1862" t="s">
+        <v>2198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F65F68-3EE8-408C-B493-AEF95C6E4F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A596CF8-BAEF-48F2-8030-9C0A2EC1D6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1620" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22373" uniqueCount="2199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22385" uniqueCount="2200">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6617,6 +6617,9 @@
   </si>
   <si>
     <t>Big Daddy</t>
+  </si>
+  <si>
+    <t>Small Daddy</t>
   </si>
 </sst>
 </file>
@@ -6984,10 +6987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1862"/>
+  <dimension ref="A1:N1863"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1842" workbookViewId="0">
-      <selection activeCell="N1862" sqref="N1862"/>
+      <selection activeCell="N1863" sqref="N1863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84999,6 +85002,50 @@
         <v>2198</v>
       </c>
     </row>
+    <row r="1863" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E1863">
+        <v>77777</v>
+      </c>
+      <c r="F1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G1863" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="K1863">
+        <v>777777</v>
+      </c>
+      <c r="L1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="M1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="N1863" t="s">
+        <v>2199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A596CF8-BAEF-48F2-8030-9C0A2EC1D6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803EDCA6-26D4-43BF-83DA-BAFCDC1CCA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1620" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22385" uniqueCount="2200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22373" uniqueCount="2199">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6617,9 +6617,6 @@
   </si>
   <si>
     <t>Big Daddy</t>
-  </si>
-  <si>
-    <t>Small Daddy</t>
   </si>
 </sst>
 </file>
@@ -6987,10 +6984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1863"/>
+  <dimension ref="A1:N1862"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1842" workbookViewId="0">
-      <selection activeCell="N1863" sqref="N1863"/>
+      <selection activeCell="A1863" sqref="A1863:XFD1863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -85002,50 +84999,6 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="1863" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1863" t="s">
-        <v>2199</v>
-      </c>
-      <c r="B1863" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C1863" t="s">
-        <v>1919</v>
-      </c>
-      <c r="D1863" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E1863">
-        <v>77777</v>
-      </c>
-      <c r="F1863" t="s">
-        <v>2199</v>
-      </c>
-      <c r="G1863" t="s">
-        <v>2074</v>
-      </c>
-      <c r="H1863" t="s">
-        <v>2199</v>
-      </c>
-      <c r="I1863" t="s">
-        <v>2199</v>
-      </c>
-      <c r="J1863" t="s">
-        <v>2199</v>
-      </c>
-      <c r="K1863">
-        <v>777777</v>
-      </c>
-      <c r="L1863" t="s">
-        <v>2199</v>
-      </c>
-      <c r="M1863" t="s">
-        <v>2199</v>
-      </c>
-      <c r="N1863" t="s">
-        <v>2199</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803EDCA6-26D4-43BF-83DA-BAFCDC1CCA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEF729F-0DDA-417A-85C5-1FE20EB628ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1620" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22373" uniqueCount="2199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22384" uniqueCount="2200">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6617,6 +6617,9 @@
   </si>
   <si>
     <t>Big Daddy</t>
+  </si>
+  <si>
+    <t>Charles Jackson</t>
   </si>
 </sst>
 </file>
@@ -6984,10 +6987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1862"/>
+  <dimension ref="A1:N1863"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1842" workbookViewId="0">
-      <selection activeCell="A1863" sqref="A1863:XFD1863"/>
+      <selection activeCell="K1864" sqref="K1864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84999,6 +85002,47 @@
         <v>2198</v>
       </c>
     </row>
+    <row r="1863" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E1863">
+        <v>82932</v>
+      </c>
+      <c r="F1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="K1863">
+        <v>198728</v>
+      </c>
+      <c r="L1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="M1863" t="s">
+        <v>2199</v>
+      </c>
+      <c r="N1863" t="s">
+        <v>2199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D60FBBC-78C5-46A6-8748-DB57C3A9FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4778B6B7-C8DA-4A2E-BB96-B404477494D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="900" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2641,7 +2641,7 @@
     <t>Atlanta</t>
   </si>
   <si>
-    <t>Big D Daddy</t>
+    <t>Big Diesel</t>
   </si>
 </sst>
 </file>
@@ -3011,8 +3011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
-      <selection activeCell="K656" sqref="K656"/>
+    <sheetView tabSelected="1" topLeftCell="A635" workbookViewId="0">
+      <selection activeCell="A656" sqref="A656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29115"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\api\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827426E1-A2A5-4882-B00B-7BBBFF3A0BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1440" yWindow="900" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2641,8 +2647,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2705,13 +2711,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2749,7 +2763,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2783,6 +2797,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2817,9 +2832,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2992,14 +3008,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N659"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3043,7 +3061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3087,7 +3105,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3131,7 +3149,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3175,7 +3193,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3219,7 +3237,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3263,7 +3281,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3307,7 +3325,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3351,7 +3369,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3395,7 +3413,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3439,7 +3457,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3483,7 +3501,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -3527,7 +3545,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3571,7 +3589,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3615,7 +3633,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -3659,7 +3677,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3703,7 +3721,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3747,7 +3765,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -3791,7 +3809,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -3835,7 +3853,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3879,7 +3897,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3923,7 +3941,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -3967,7 +3985,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -4011,7 +4029,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -4055,7 +4073,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -4143,7 +4161,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -4187,7 +4205,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -4231,7 +4249,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -4275,7 +4293,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -4319,7 +4337,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -4363,7 +4381,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -4407,7 +4425,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -4451,7 +4469,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -4495,7 +4513,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -4539,7 +4557,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -4583,7 +4601,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -4627,7 +4645,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -4671,7 +4689,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -4715,7 +4733,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -4759,7 +4777,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -4803,7 +4821,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -4847,7 +4865,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -4891,7 +4909,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -4935,7 +4953,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -4979,7 +4997,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -5023,7 +5041,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -5067,7 +5085,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -5111,7 +5129,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -5155,7 +5173,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5199,7 +5217,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -5243,7 +5261,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -5287,7 +5305,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -5331,7 +5349,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -5375,7 +5393,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5419,7 +5437,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -5463,7 +5481,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -5507,7 +5525,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -5551,7 +5569,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -5595,7 +5613,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -5639,7 +5657,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -5683,7 +5701,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -5727,7 +5745,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -5771,7 +5789,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -5815,7 +5833,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -5859,7 +5877,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -5903,7 +5921,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -5947,7 +5965,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -5991,7 +6009,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -6035,7 +6053,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -6079,7 +6097,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -6167,7 +6185,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -6211,7 +6229,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -6255,7 +6273,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -6299,7 +6317,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -6343,7 +6361,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -6387,7 +6405,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -6431,7 +6449,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -6475,7 +6493,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -6519,7 +6537,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -6563,7 +6581,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -6607,7 +6625,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -6651,7 +6669,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -6695,7 +6713,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -6739,7 +6757,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -6783,7 +6801,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -6827,7 +6845,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -6871,7 +6889,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -6915,7 +6933,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -6959,7 +6977,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -7003,7 +7021,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -7047,7 +7065,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -7091,7 +7109,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -7135,7 +7153,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>107</v>
       </c>
@@ -7179,7 +7197,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -7223,7 +7241,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -7267,7 +7285,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -7311,7 +7329,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -7355,7 +7373,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -7399,7 +7417,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -7443,7 +7461,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -7487,7 +7505,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -7531,7 +7549,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -7575,7 +7593,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -7619,7 +7637,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -7663,7 +7681,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -7707,7 +7725,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -7751,7 +7769,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -7795,7 +7813,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -7839,7 +7857,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -7883,7 +7901,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -7927,7 +7945,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -7971,7 +7989,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -8015,7 +8033,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -8059,7 +8077,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -8103,7 +8121,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -8147,7 +8165,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -8191,7 +8209,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -8235,7 +8253,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -8279,7 +8297,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -8323,7 +8341,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -8367,7 +8385,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -8411,7 +8429,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -8455,7 +8473,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -8499,7 +8517,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -8543,7 +8561,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -8587,7 +8605,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -8631,7 +8649,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -8675,7 +8693,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -8719,7 +8737,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -8763,7 +8781,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -8807,7 +8825,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -8851,7 +8869,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -8882,6 +8900,9 @@
       <c r="J134" t="s">
         <v>146</v>
       </c>
+      <c r="K134">
+        <v>664728</v>
+      </c>
       <c r="L134" t="s">
         <v>146</v>
       </c>
@@ -8892,7 +8913,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -8936,7 +8957,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -8980,7 +9001,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -9024,7 +9045,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -9068,7 +9089,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -9112,7 +9133,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -9156,7 +9177,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -9200,7 +9221,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -9244,7 +9265,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -9288,7 +9309,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -9332,7 +9353,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -9376,7 +9397,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -9420,7 +9441,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -9464,7 +9485,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -9508,7 +9529,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -9552,7 +9573,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -9596,7 +9617,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -9640,7 +9661,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -9684,7 +9705,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -9728,7 +9749,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -9772,7 +9793,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -9816,7 +9837,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -9860,7 +9881,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -9904,7 +9925,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -9948,7 +9969,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -9992,7 +10013,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -10036,7 +10057,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -10080,7 +10101,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -10124,7 +10145,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -10168,7 +10189,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -10212,7 +10233,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -10256,7 +10277,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -10300,7 +10321,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -10344,7 +10365,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -10388,7 +10409,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -10432,7 +10453,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -10476,7 +10497,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -10520,7 +10541,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -10564,7 +10585,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -10605,7 +10626,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -10649,7 +10670,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -10693,7 +10714,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -10737,7 +10758,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -10781,7 +10802,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -10825,7 +10846,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -10869,7 +10890,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -10913,7 +10934,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -10957,7 +10978,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -11001,7 +11022,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -11045,7 +11066,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -11089,7 +11110,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -11133,7 +11154,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -11177,7 +11198,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -11221,7 +11242,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -11265,7 +11286,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -11309,7 +11330,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -11353,7 +11374,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -11397,7 +11418,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -11441,7 +11462,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -11485,7 +11506,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -11529,7 +11550,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -11570,7 +11591,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -11614,7 +11635,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -11658,7 +11679,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -11702,7 +11723,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -11746,7 +11767,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -11790,7 +11811,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -11834,7 +11855,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -11878,7 +11899,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -11922,7 +11943,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -11966,7 +11987,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -12010,7 +12031,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -12054,7 +12075,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -12098,7 +12119,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -12142,7 +12163,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -12186,7 +12207,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -12230,7 +12251,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -12274,7 +12295,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>224</v>
       </c>
@@ -12318,7 +12339,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -12362,7 +12383,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -12406,7 +12427,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -12450,7 +12471,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -12494,7 +12515,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -12538,7 +12559,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -12582,7 +12603,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -12626,7 +12647,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>232</v>
       </c>
@@ -12670,7 +12691,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -12714,7 +12735,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -12758,7 +12779,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -12802,7 +12823,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>236</v>
       </c>
@@ -12843,7 +12864,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>237</v>
       </c>
@@ -12887,7 +12908,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>238</v>
       </c>
@@ -12931,7 +12952,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -12975,7 +12996,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -13019,7 +13040,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -13063,7 +13084,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>242</v>
       </c>
@@ -13107,7 +13128,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>243</v>
       </c>
@@ -13151,7 +13172,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>244</v>
       </c>
@@ -13195,7 +13216,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -13239,7 +13260,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>246</v>
       </c>
@@ -13283,7 +13304,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>247</v>
       </c>
@@ -13327,7 +13348,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>248</v>
       </c>
@@ -13368,7 +13389,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>249</v>
       </c>
@@ -13412,7 +13433,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -13456,7 +13477,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>251</v>
       </c>
@@ -13500,7 +13521,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -13544,7 +13565,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -13588,7 +13609,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>254</v>
       </c>
@@ -13632,7 +13653,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>255</v>
       </c>
@@ -13676,7 +13697,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>256</v>
       </c>
@@ -13720,7 +13741,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>257</v>
       </c>
@@ -13764,7 +13785,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -13808,7 +13829,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>259</v>
       </c>
@@ -13852,7 +13873,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>260</v>
       </c>
@@ -13896,7 +13917,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -13940,7 +13961,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>262</v>
       </c>
@@ -13984,7 +14005,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>263</v>
       </c>
@@ -14028,7 +14049,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -14072,7 +14093,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>265</v>
       </c>
@@ -14116,7 +14137,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>266</v>
       </c>
@@ -14160,7 +14181,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>267</v>
       </c>
@@ -14204,7 +14225,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>268</v>
       </c>
@@ -14248,7 +14269,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>269</v>
       </c>
@@ -14292,7 +14313,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>270</v>
       </c>
@@ -14336,7 +14357,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>271</v>
       </c>
@@ -14380,7 +14401,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>272</v>
       </c>
@@ -14424,7 +14445,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>273</v>
       </c>
@@ -14468,7 +14489,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>274</v>
       </c>
@@ -14512,7 +14533,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>275</v>
       </c>
@@ -14556,7 +14577,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>276</v>
       </c>
@@ -14600,7 +14621,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>277</v>
       </c>
@@ -14644,7 +14665,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>278</v>
       </c>
@@ -14688,7 +14709,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>279</v>
       </c>
@@ -14732,7 +14753,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>280</v>
       </c>
@@ -14776,7 +14797,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>281</v>
       </c>
@@ -14820,7 +14841,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>282</v>
       </c>
@@ -14864,7 +14885,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>283</v>
       </c>
@@ -14908,7 +14929,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>48</v>
       </c>
@@ -14949,7 +14970,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>22</v>
       </c>
@@ -14990,7 +15011,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>284</v>
       </c>
@@ -15034,7 +15055,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>285</v>
       </c>
@@ -15078,7 +15099,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>286</v>
       </c>
@@ -15122,7 +15143,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>287</v>
       </c>
@@ -15166,7 +15187,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>288</v>
       </c>
@@ -15210,7 +15231,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>289</v>
       </c>
@@ -15254,7 +15275,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>290</v>
       </c>
@@ -15298,7 +15319,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>291</v>
       </c>
@@ -15342,7 +15363,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>292</v>
       </c>
@@ -15386,7 +15407,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>293</v>
       </c>
@@ -15430,7 +15451,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>294</v>
       </c>
@@ -15474,7 +15495,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>295</v>
       </c>
@@ -15518,7 +15539,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>296</v>
       </c>
@@ -15562,7 +15583,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>297</v>
       </c>
@@ -15606,7 +15627,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>298</v>
       </c>
@@ -15650,7 +15671,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>299</v>
       </c>
@@ -15694,7 +15715,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>300</v>
       </c>
@@ -15738,7 +15759,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>301</v>
       </c>
@@ -15782,7 +15803,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>302</v>
       </c>
@@ -15826,7 +15847,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>303</v>
       </c>
@@ -15870,7 +15891,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>304</v>
       </c>
@@ -15914,7 +15935,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>305</v>
       </c>
@@ -15958,7 +15979,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>306</v>
       </c>
@@ -16002,7 +16023,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>307</v>
       </c>
@@ -16046,7 +16067,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>308</v>
       </c>
@@ -16090,7 +16111,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>309</v>
       </c>
@@ -16134,7 +16155,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>310</v>
       </c>
@@ -16178,7 +16199,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>311</v>
       </c>
@@ -16222,7 +16243,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>312</v>
       </c>
@@ -16266,7 +16287,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>313</v>
       </c>
@@ -16310,7 +16331,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>314</v>
       </c>
@@ -16354,7 +16375,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>315</v>
       </c>
@@ -16398,7 +16419,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>316</v>
       </c>
@@ -16442,7 +16463,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>317</v>
       </c>
@@ -16486,7 +16507,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>318</v>
       </c>
@@ -16530,7 +16551,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>319</v>
       </c>
@@ -16574,7 +16595,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>320</v>
       </c>
@@ -16618,7 +16639,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>321</v>
       </c>
@@ -16662,7 +16683,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>322</v>
       </c>
@@ -16706,7 +16727,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>323</v>
       </c>
@@ -16750,7 +16771,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>324</v>
       </c>
@@ -16794,7 +16815,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>325</v>
       </c>
@@ -16838,7 +16859,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>326</v>
       </c>
@@ -16882,7 +16903,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>327</v>
       </c>
@@ -16926,7 +16947,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>328</v>
       </c>
@@ -16970,7 +16991,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>329</v>
       </c>
@@ -17014,7 +17035,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>330</v>
       </c>
@@ -17058,7 +17079,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>331</v>
       </c>
@@ -17102,7 +17123,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>332</v>
       </c>
@@ -17146,7 +17167,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>333</v>
       </c>
@@ -17190,7 +17211,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>334</v>
       </c>
@@ -17234,7 +17255,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>335</v>
       </c>
@@ -17278,7 +17299,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>336</v>
       </c>
@@ -17322,7 +17343,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>337</v>
       </c>
@@ -17366,7 +17387,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>338</v>
       </c>
@@ -17410,7 +17431,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>339</v>
       </c>
@@ -17454,7 +17475,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>340</v>
       </c>
@@ -17498,7 +17519,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>341</v>
       </c>
@@ -17542,7 +17563,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>342</v>
       </c>
@@ -17586,7 +17607,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>343</v>
       </c>
@@ -17630,7 +17651,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>344</v>
       </c>
@@ -17674,7 +17695,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>345</v>
       </c>
@@ -17718,7 +17739,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>346</v>
       </c>
@@ -17762,7 +17783,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>347</v>
       </c>
@@ -17806,7 +17827,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>348</v>
       </c>
@@ -17850,7 +17871,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>349</v>
       </c>
@@ -17894,7 +17915,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>350</v>
       </c>
@@ -17938,7 +17959,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>351</v>
       </c>
@@ -17982,7 +18003,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>352</v>
       </c>
@@ -18026,7 +18047,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>353</v>
       </c>
@@ -18070,7 +18091,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>354</v>
       </c>
@@ -18114,7 +18135,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>355</v>
       </c>
@@ -18158,7 +18179,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>356</v>
       </c>
@@ -18202,7 +18223,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>357</v>
       </c>
@@ -18246,7 +18267,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>358</v>
       </c>
@@ -18290,7 +18311,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>359</v>
       </c>
@@ -18334,7 +18355,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>360</v>
       </c>
@@ -18378,7 +18399,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>361</v>
       </c>
@@ -18422,7 +18443,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>362</v>
       </c>
@@ -18466,7 +18487,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>363</v>
       </c>
@@ -18510,7 +18531,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>364</v>
       </c>
@@ -18554,7 +18575,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>365</v>
       </c>
@@ -18598,7 +18619,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>366</v>
       </c>
@@ -18642,7 +18663,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>367</v>
       </c>
@@ -18686,7 +18707,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>368</v>
       </c>
@@ -18730,7 +18751,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>369</v>
       </c>
@@ -18774,7 +18795,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>370</v>
       </c>
@@ -18818,7 +18839,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>371</v>
       </c>
@@ -18862,7 +18883,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>372</v>
       </c>
@@ -18906,7 +18927,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>373</v>
       </c>
@@ -18950,7 +18971,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>374</v>
       </c>
@@ -18994,7 +19015,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>375</v>
       </c>
@@ -19038,7 +19059,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>376</v>
       </c>
@@ -19082,7 +19103,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>377</v>
       </c>
@@ -19126,7 +19147,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>378</v>
       </c>
@@ -19170,7 +19191,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>379</v>
       </c>
@@ -19214,7 +19235,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>380</v>
       </c>
@@ -19258,7 +19279,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>381</v>
       </c>
@@ -19302,7 +19323,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>382</v>
       </c>
@@ -19346,7 +19367,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>383</v>
       </c>
@@ -19390,7 +19411,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>384</v>
       </c>
@@ -19434,7 +19455,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>385</v>
       </c>
@@ -19478,7 +19499,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>386</v>
       </c>
@@ -19522,7 +19543,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>387</v>
       </c>
@@ -19566,7 +19587,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>388</v>
       </c>
@@ -19610,7 +19631,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>389</v>
       </c>
@@ -19651,7 +19672,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>390</v>
       </c>
@@ -19695,7 +19716,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>391</v>
       </c>
@@ -19739,7 +19760,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>392</v>
       </c>
@@ -19783,7 +19804,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>393</v>
       </c>
@@ -19827,7 +19848,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>394</v>
       </c>
@@ -19871,7 +19892,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>395</v>
       </c>
@@ -19915,7 +19936,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>396</v>
       </c>
@@ -19959,7 +19980,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>397</v>
       </c>
@@ -20003,7 +20024,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>398</v>
       </c>
@@ -20047,7 +20068,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>399</v>
       </c>
@@ -20091,7 +20112,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>400</v>
       </c>
@@ -20135,7 +20156,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>401</v>
       </c>
@@ -20179,7 +20200,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>402</v>
       </c>
@@ -20223,7 +20244,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>403</v>
       </c>
@@ -20267,7 +20288,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="394" spans="1:14">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>404</v>
       </c>
@@ -20311,7 +20332,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>405</v>
       </c>
@@ -20355,7 +20376,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="396" spans="1:14">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>406</v>
       </c>
@@ -20399,7 +20420,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="397" spans="1:14">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>407</v>
       </c>
@@ -20443,7 +20464,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>408</v>
       </c>
@@ -20487,7 +20508,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>409</v>
       </c>
@@ -20531,7 +20552,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="400" spans="1:14">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>410</v>
       </c>
@@ -20575,7 +20596,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>411</v>
       </c>
@@ -20619,7 +20640,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="402" spans="1:14">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>412</v>
       </c>
@@ -20663,7 +20684,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>413</v>
       </c>
@@ -20707,7 +20728,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="404" spans="1:14">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>414</v>
       </c>
@@ -20751,7 +20772,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>415</v>
       </c>
@@ -20795,7 +20816,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="406" spans="1:14">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>416</v>
       </c>
@@ -20839,7 +20860,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>417</v>
       </c>
@@ -20883,7 +20904,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="408" spans="1:14">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>418</v>
       </c>
@@ -20927,7 +20948,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>419</v>
       </c>
@@ -20971,7 +20992,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="410" spans="1:14">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>420</v>
       </c>
@@ -21015,7 +21036,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>421</v>
       </c>
@@ -21059,7 +21080,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="412" spans="1:14">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>422</v>
       </c>
@@ -21103,7 +21124,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>423</v>
       </c>
@@ -21147,7 +21168,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="414" spans="1:14">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>424</v>
       </c>
@@ -21191,7 +21212,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>425</v>
       </c>
@@ -21235,7 +21256,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="416" spans="1:14">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>426</v>
       </c>
@@ -21279,7 +21300,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="417" spans="1:14">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>427</v>
       </c>
@@ -21323,7 +21344,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="418" spans="1:14">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>428</v>
       </c>
@@ -21367,7 +21388,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="419" spans="1:14">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>429</v>
       </c>
@@ -21411,7 +21432,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="420" spans="1:14">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>430</v>
       </c>
@@ -21455,7 +21476,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="421" spans="1:14">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>431</v>
       </c>
@@ -21499,7 +21520,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="422" spans="1:14">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>432</v>
       </c>
@@ -21543,7 +21564,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="423" spans="1:14">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>433</v>
       </c>
@@ -21587,7 +21608,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="424" spans="1:14">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>434</v>
       </c>
@@ -21631,7 +21652,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="425" spans="1:14">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>435</v>
       </c>
@@ -21675,7 +21696,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="426" spans="1:14">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>436</v>
       </c>
@@ -21719,7 +21740,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="427" spans="1:14">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>437</v>
       </c>
@@ -21763,7 +21784,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="428" spans="1:14">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>438</v>
       </c>
@@ -21807,7 +21828,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="429" spans="1:14">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>439</v>
       </c>
@@ -21851,7 +21872,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="430" spans="1:14">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>440</v>
       </c>
@@ -21895,7 +21916,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="431" spans="1:14">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>441</v>
       </c>
@@ -21939,7 +21960,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="432" spans="1:14">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>442</v>
       </c>
@@ -21983,7 +22004,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="433" spans="1:14">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>443</v>
       </c>
@@ -22027,7 +22048,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="434" spans="1:14">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>444</v>
       </c>
@@ -22071,7 +22092,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="435" spans="1:14">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>445</v>
       </c>
@@ -22115,7 +22136,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="436" spans="1:14">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>446</v>
       </c>
@@ -22159,7 +22180,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="437" spans="1:14">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>447</v>
       </c>
@@ -22203,7 +22224,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="438" spans="1:14">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>448</v>
       </c>
@@ -22247,7 +22268,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="439" spans="1:14">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>449</v>
       </c>
@@ -22291,7 +22312,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="440" spans="1:14">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>450</v>
       </c>
@@ -22335,7 +22356,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="441" spans="1:14">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>451</v>
       </c>
@@ -22379,7 +22400,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="442" spans="1:14">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>452</v>
       </c>
@@ -22423,7 +22444,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="443" spans="1:14">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>453</v>
       </c>
@@ -22467,7 +22488,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="444" spans="1:14">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>454</v>
       </c>
@@ -22511,7 +22532,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="445" spans="1:14">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>455</v>
       </c>
@@ -22555,7 +22576,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="446" spans="1:14">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>456</v>
       </c>
@@ -22599,7 +22620,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="447" spans="1:14">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>457</v>
       </c>
@@ -22643,7 +22664,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="448" spans="1:14">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>458</v>
       </c>
@@ -22687,7 +22708,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="449" spans="1:14">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>459</v>
       </c>
@@ -22731,7 +22752,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="450" spans="1:14">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>460</v>
       </c>
@@ -22775,7 +22796,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="451" spans="1:14">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>461</v>
       </c>
@@ -22819,7 +22840,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>462</v>
       </c>
@@ -22863,7 +22884,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>463</v>
       </c>
@@ -22907,7 +22928,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>464</v>
       </c>
@@ -22951,7 +22972,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>465</v>
       </c>
@@ -22995,7 +23016,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>466</v>
       </c>
@@ -23039,7 +23060,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>467</v>
       </c>
@@ -23083,7 +23104,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>468</v>
       </c>
@@ -23127,7 +23148,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>469</v>
       </c>
@@ -23171,7 +23192,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>470</v>
       </c>
@@ -23215,7 +23236,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="461" spans="1:14">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>471</v>
       </c>
@@ -23259,7 +23280,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="462" spans="1:14">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>472</v>
       </c>
@@ -23303,7 +23324,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="463" spans="1:14">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>473</v>
       </c>
@@ -23347,7 +23368,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>474</v>
       </c>
@@ -23391,7 +23412,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="465" spans="1:14">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>475</v>
       </c>
@@ -23435,7 +23456,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="466" spans="1:14">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>476</v>
       </c>
@@ -23479,7 +23500,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="467" spans="1:14">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>477</v>
       </c>
@@ -23523,7 +23544,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="468" spans="1:14">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>478</v>
       </c>
@@ -23567,7 +23588,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="469" spans="1:14">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>479</v>
       </c>
@@ -23611,7 +23632,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="470" spans="1:14">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>480</v>
       </c>
@@ -23655,7 +23676,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="471" spans="1:14">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>481</v>
       </c>
@@ -23699,7 +23720,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="472" spans="1:14">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>482</v>
       </c>
@@ -23743,7 +23764,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="473" spans="1:14">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>483</v>
       </c>
@@ -23787,7 +23808,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="474" spans="1:14">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>484</v>
       </c>
@@ -23831,7 +23852,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="475" spans="1:14">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>485</v>
       </c>
@@ -23875,7 +23896,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="476" spans="1:14">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>486</v>
       </c>
@@ -23919,7 +23940,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="477" spans="1:14">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>487</v>
       </c>
@@ -23963,7 +23984,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="478" spans="1:14">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>488</v>
       </c>
@@ -24007,7 +24028,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="479" spans="1:14">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>489</v>
       </c>
@@ -24051,7 +24072,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="480" spans="1:14">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>490</v>
       </c>
@@ -24095,7 +24116,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="481" spans="1:14">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>491</v>
       </c>
@@ -24139,7 +24160,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="482" spans="1:14">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>492</v>
       </c>
@@ -24183,7 +24204,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="483" spans="1:14">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>493</v>
       </c>
@@ -24227,7 +24248,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="484" spans="1:14">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>494</v>
       </c>
@@ -24271,7 +24292,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="485" spans="1:14">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>495</v>
       </c>
@@ -24315,7 +24336,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="486" spans="1:14">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>496</v>
       </c>
@@ -24359,7 +24380,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="487" spans="1:14">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>497</v>
       </c>
@@ -24403,7 +24424,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="488" spans="1:14">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>498</v>
       </c>
@@ -24447,7 +24468,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="489" spans="1:14">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>499</v>
       </c>
@@ -24491,7 +24512,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="490" spans="1:14">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>500</v>
       </c>
@@ -24535,7 +24556,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="491" spans="1:14">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>501</v>
       </c>
@@ -24579,7 +24600,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="492" spans="1:14">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>502</v>
       </c>
@@ -24623,7 +24644,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="493" spans="1:14">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>503</v>
       </c>
@@ -24667,7 +24688,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="494" spans="1:14">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>504</v>
       </c>
@@ -24711,7 +24732,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="495" spans="1:14">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>505</v>
       </c>
@@ -24755,7 +24776,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="496" spans="1:14">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>506</v>
       </c>
@@ -24799,7 +24820,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="497" spans="1:14">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>507</v>
       </c>
@@ -24843,7 +24864,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="498" spans="1:14">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>508</v>
       </c>
@@ -24887,7 +24908,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="499" spans="1:14">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>509</v>
       </c>
@@ -24931,7 +24952,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="500" spans="1:14">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>510</v>
       </c>
@@ -24975,7 +24996,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="501" spans="1:14">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>511</v>
       </c>
@@ -25019,7 +25040,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="502" spans="1:14">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>512</v>
       </c>
@@ -25063,7 +25084,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="503" spans="1:14">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>513</v>
       </c>
@@ -25107,7 +25128,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="504" spans="1:14">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>514</v>
       </c>
@@ -25151,7 +25172,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="505" spans="1:14">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>515</v>
       </c>
@@ -25195,7 +25216,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="506" spans="1:14">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>516</v>
       </c>
@@ -25239,7 +25260,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="507" spans="1:14">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>517</v>
       </c>
@@ -25283,7 +25304,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="508" spans="1:14">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>518</v>
       </c>
@@ -25327,7 +25348,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="509" spans="1:14">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>519</v>
       </c>
@@ -25371,7 +25392,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="510" spans="1:14">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>520</v>
       </c>
@@ -25415,7 +25436,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="511" spans="1:14">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>521</v>
       </c>
@@ -25459,7 +25480,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="512" spans="1:14">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>522</v>
       </c>
@@ -25503,7 +25524,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="513" spans="1:14">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>523</v>
       </c>
@@ -25547,7 +25568,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="514" spans="1:14">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>524</v>
       </c>
@@ -25591,7 +25612,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="515" spans="1:14">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>525</v>
       </c>
@@ -25635,7 +25656,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="516" spans="1:14">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>526</v>
       </c>
@@ -25679,7 +25700,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="517" spans="1:14">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>527</v>
       </c>
@@ -25723,7 +25744,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="518" spans="1:14">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>528</v>
       </c>
@@ -25767,7 +25788,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="519" spans="1:14">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>529</v>
       </c>
@@ -25811,7 +25832,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="520" spans="1:14">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>530</v>
       </c>
@@ -25855,7 +25876,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="521" spans="1:14">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>531</v>
       </c>
@@ -25899,7 +25920,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="522" spans="1:14">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>532</v>
       </c>
@@ -25943,7 +25964,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="523" spans="1:14">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>533</v>
       </c>
@@ -25987,7 +26008,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="524" spans="1:14">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>534</v>
       </c>
@@ -26031,7 +26052,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="525" spans="1:14">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>535</v>
       </c>
@@ -26075,7 +26096,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="526" spans="1:14">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>536</v>
       </c>
@@ -26119,7 +26140,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="527" spans="1:14">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>537</v>
       </c>
@@ -26163,7 +26184,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="528" spans="1:14">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>538</v>
       </c>
@@ -26207,7 +26228,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="529" spans="1:14">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>539</v>
       </c>
@@ -26251,7 +26272,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="530" spans="1:14">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>540</v>
       </c>
@@ -26295,7 +26316,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="531" spans="1:14">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>541</v>
       </c>
@@ -26339,7 +26360,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="532" spans="1:14">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>542</v>
       </c>
@@ -26383,7 +26404,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="533" spans="1:14">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>543</v>
       </c>
@@ -26427,7 +26448,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="534" spans="1:14">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>544</v>
       </c>
@@ -26471,7 +26492,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="535" spans="1:14">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>545</v>
       </c>
@@ -26515,7 +26536,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="536" spans="1:14">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>546</v>
       </c>
@@ -26559,7 +26580,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="537" spans="1:14">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>547</v>
       </c>
@@ -26603,7 +26624,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="538" spans="1:14">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>548</v>
       </c>
@@ -26647,7 +26668,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="539" spans="1:14">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>549</v>
       </c>
@@ -26691,7 +26712,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="540" spans="1:14">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>550</v>
       </c>
@@ -26735,7 +26756,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="541" spans="1:14">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>551</v>
       </c>
@@ -26779,7 +26800,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="542" spans="1:14">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>552</v>
       </c>
@@ -26823,7 +26844,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="543" spans="1:14">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>553</v>
       </c>
@@ -26867,7 +26888,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="544" spans="1:14">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>554</v>
       </c>
@@ -26911,7 +26932,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="545" spans="1:14">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>555</v>
       </c>
@@ -26955,7 +26976,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="546" spans="1:14">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>556</v>
       </c>
@@ -26999,7 +27020,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="547" spans="1:14">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>557</v>
       </c>
@@ -27043,7 +27064,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="548" spans="1:14">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>558</v>
       </c>
@@ -27087,7 +27108,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="549" spans="1:14">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>559</v>
       </c>
@@ -27131,7 +27152,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="550" spans="1:14">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>560</v>
       </c>
@@ -27175,7 +27196,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="551" spans="1:14">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>561</v>
       </c>
@@ -27219,7 +27240,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="552" spans="1:14">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>562</v>
       </c>
@@ -27263,7 +27284,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="553" spans="1:14">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>563</v>
       </c>
@@ -27307,7 +27328,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="554" spans="1:14">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>564</v>
       </c>
@@ -27351,7 +27372,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="555" spans="1:14">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>565</v>
       </c>
@@ -27395,7 +27416,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="556" spans="1:14">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>566</v>
       </c>
@@ -27439,7 +27460,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="557" spans="1:14">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>567</v>
       </c>
@@ -27480,7 +27501,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="558" spans="1:14">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>568</v>
       </c>
@@ -27524,7 +27545,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="559" spans="1:14">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>569</v>
       </c>
@@ -27565,7 +27586,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="560" spans="1:14">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>570</v>
       </c>
@@ -27609,7 +27630,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="561" spans="1:14">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>571</v>
       </c>
@@ -27653,7 +27674,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="562" spans="1:14">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>572</v>
       </c>
@@ -27697,7 +27718,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="563" spans="1:14">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>573</v>
       </c>
@@ -27741,7 +27762,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="564" spans="1:14">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>574</v>
       </c>
@@ -27785,7 +27806,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="565" spans="1:14">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>575</v>
       </c>
@@ -27829,7 +27850,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="566" spans="1:14">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>576</v>
       </c>
@@ -27873,7 +27894,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="567" spans="1:14">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>577</v>
       </c>
@@ -27917,7 +27938,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="568" spans="1:14">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>578</v>
       </c>
@@ -27961,7 +27982,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="569" spans="1:14">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>579</v>
       </c>
@@ -28005,7 +28026,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="570" spans="1:14">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>580</v>
       </c>
@@ -28049,7 +28070,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="571" spans="1:14">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>581</v>
       </c>
@@ -28093,7 +28114,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="572" spans="1:14">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>582</v>
       </c>
@@ -28134,7 +28155,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="573" spans="1:14">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>583</v>
       </c>
@@ -28178,7 +28199,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="574" spans="1:14">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>584</v>
       </c>
@@ -28222,7 +28243,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="575" spans="1:14">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>585</v>
       </c>
@@ -28266,7 +28287,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="576" spans="1:14">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>586</v>
       </c>
@@ -28307,7 +28328,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="577" spans="1:14">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>587</v>
       </c>
@@ -28351,7 +28372,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="578" spans="1:14">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>588</v>
       </c>
@@ -28392,7 +28413,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="579" spans="1:14">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>589</v>
       </c>
@@ -28433,7 +28454,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="580" spans="1:14">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>590</v>
       </c>
@@ -28477,7 +28498,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="581" spans="1:14">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>591</v>
       </c>
@@ -28518,7 +28539,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="582" spans="1:14">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>592</v>
       </c>
@@ -28562,7 +28583,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="583" spans="1:14">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>593</v>
       </c>
@@ -28606,7 +28627,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="584" spans="1:14">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>594</v>
       </c>
@@ -28647,7 +28668,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="585" spans="1:14">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>595</v>
       </c>
@@ -28691,7 +28712,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="586" spans="1:14">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>596</v>
       </c>
@@ -28735,7 +28756,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="587" spans="1:14">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>597</v>
       </c>
@@ -28776,7 +28797,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="588" spans="1:14">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>598</v>
       </c>
@@ -28820,7 +28841,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="589" spans="1:14">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>599</v>
       </c>
@@ -28861,7 +28882,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="590" spans="1:14">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>600</v>
       </c>
@@ -28905,7 +28926,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="591" spans="1:14">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>601</v>
       </c>
@@ -28946,7 +28967,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="592" spans="1:14">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>602</v>
       </c>
@@ -28987,7 +29008,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="593" spans="1:14">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>603</v>
       </c>
@@ -29028,7 +29049,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="594" spans="1:14">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>604</v>
       </c>
@@ -29069,7 +29090,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="595" spans="1:14">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>605</v>
       </c>
@@ -29110,7 +29131,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="596" spans="1:14">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>606</v>
       </c>
@@ -29154,7 +29175,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="597" spans="1:14">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>607</v>
       </c>
@@ -29198,7 +29219,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="598" spans="1:14">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>608</v>
       </c>
@@ -29242,7 +29263,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="599" spans="1:14">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>609</v>
       </c>
@@ -29286,7 +29307,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="600" spans="1:14">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>610</v>
       </c>
@@ -29330,7 +29351,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="601" spans="1:14">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>611</v>
       </c>
@@ -29371,7 +29392,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="602" spans="1:14">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>612</v>
       </c>
@@ -29412,7 +29433,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="603" spans="1:14">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>613</v>
       </c>
@@ -29456,7 +29477,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="604" spans="1:14">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>263</v>
       </c>
@@ -29497,7 +29518,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="605" spans="1:14">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>614</v>
       </c>
@@ -29538,7 +29559,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="606" spans="1:14">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>615</v>
       </c>
@@ -29582,7 +29603,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="607" spans="1:14">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>616</v>
       </c>
@@ -29626,7 +29647,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="608" spans="1:14">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>617</v>
       </c>
@@ -29670,7 +29691,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="609" spans="1:14">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>618</v>
       </c>
@@ -29714,7 +29735,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="610" spans="1:14">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>265</v>
       </c>
@@ -29755,7 +29776,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="611" spans="1:14">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>266</v>
       </c>
@@ -29796,7 +29817,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="612" spans="1:14">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>619</v>
       </c>
@@ -29837,7 +29858,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="613" spans="1:14">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>267</v>
       </c>
@@ -29878,7 +29899,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="614" spans="1:14">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>268</v>
       </c>
@@ -29919,7 +29940,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="615" spans="1:14">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>620</v>
       </c>
@@ -29963,7 +29984,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="616" spans="1:14">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>621</v>
       </c>
@@ -30007,7 +30028,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="617" spans="1:14">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>622</v>
       </c>
@@ -30051,7 +30072,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="618" spans="1:14">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>623</v>
       </c>
@@ -30095,7 +30116,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="619" spans="1:14">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>624</v>
       </c>
@@ -30139,7 +30160,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="620" spans="1:14">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>625</v>
       </c>
@@ -30183,7 +30204,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="621" spans="1:14">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>626</v>
       </c>
@@ -30227,7 +30248,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="622" spans="1:14">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>627</v>
       </c>
@@ -30271,7 +30292,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="623" spans="1:14">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>628</v>
       </c>
@@ -30315,7 +30336,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="624" spans="1:14">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>629</v>
       </c>
@@ -30359,7 +30380,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="625" spans="1:14">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>630</v>
       </c>
@@ -30403,7 +30424,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="626" spans="1:14">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>631</v>
       </c>
@@ -30447,7 +30468,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="627" spans="1:14">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>632</v>
       </c>
@@ -30491,7 +30512,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="628" spans="1:14">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>633</v>
       </c>
@@ -30535,7 +30556,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="629" spans="1:14">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>634</v>
       </c>
@@ -30579,7 +30600,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="630" spans="1:14">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>635</v>
       </c>
@@ -30623,7 +30644,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="631" spans="1:14">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>636</v>
       </c>
@@ -30667,7 +30688,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="632" spans="1:14">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>637</v>
       </c>
@@ -30711,7 +30732,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="633" spans="1:14">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>638</v>
       </c>
@@ -30755,7 +30776,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="634" spans="1:14">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>639</v>
       </c>
@@ -30799,7 +30820,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="635" spans="1:14">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>640</v>
       </c>
@@ -30843,7 +30864,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="636" spans="1:14">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>641</v>
       </c>
@@ -30887,7 +30908,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="637" spans="1:14">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>642</v>
       </c>
@@ -30931,7 +30952,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="638" spans="1:14">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>643</v>
       </c>
@@ -30975,7 +30996,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="639" spans="1:14">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>644</v>
       </c>
@@ -31019,7 +31040,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="640" spans="1:14">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>645</v>
       </c>
@@ -31063,7 +31084,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="641" spans="1:14">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>646</v>
       </c>
@@ -31107,7 +31128,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="642" spans="1:14">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>647</v>
       </c>
@@ -31151,7 +31172,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="643" spans="1:14">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>648</v>
       </c>
@@ -31195,7 +31216,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="644" spans="1:14">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>649</v>
       </c>
@@ -31239,7 +31260,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="645" spans="1:14">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>650</v>
       </c>
@@ -31283,7 +31304,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="646" spans="1:14">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>651</v>
       </c>
@@ -31327,7 +31348,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="647" spans="1:14">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>652</v>
       </c>
@@ -31371,7 +31392,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="648" spans="1:14">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>653</v>
       </c>
@@ -31415,7 +31436,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="649" spans="1:14">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>654</v>
       </c>
@@ -31459,7 +31480,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="650" spans="1:14">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>655</v>
       </c>
@@ -31503,7 +31524,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="651" spans="1:14">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>656</v>
       </c>
@@ -31547,7 +31568,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="652" spans="1:14">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>657</v>
       </c>
@@ -31591,7 +31612,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="653" spans="1:14">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>658</v>
       </c>
@@ -31635,7 +31656,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="654" spans="1:14">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>659</v>
       </c>
@@ -31679,7 +31700,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="655" spans="1:14">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>660</v>
       </c>
@@ -31723,7 +31744,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="656" spans="1:14">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>661</v>
       </c>
@@ -31767,7 +31788,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="657" spans="1:14">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>662</v>
       </c>
@@ -31811,7 +31832,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="658" spans="1:14">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>663</v>
       </c>
@@ -31855,7 +31876,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="659" spans="1:14">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>664</v>
       </c>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827426E1-A2A5-4882-B00B-7BBBFF3A0BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B26ABFC-764A-46A4-9C6C-1B7AE10100AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="900" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7909" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7920" uniqueCount="875">
   <si>
     <t>mlb_name</t>
   </si>
@@ -2642,6 +2642,9 @@
   </si>
   <si>
     <t>Atlanta</t>
+  </si>
+  <si>
+    <t>John Doe</t>
   </si>
 </sst>
 </file>
@@ -3009,10 +3012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N659"/>
+  <dimension ref="A1:N660"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
+      <selection activeCell="K661" sqref="K661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31917,6 +31920,47 @@
         <v>664</v>
       </c>
     </row>
+    <row r="660" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>874</v>
+      </c>
+      <c r="B660" t="s">
+        <v>693</v>
+      </c>
+      <c r="C660" t="s">
+        <v>723</v>
+      </c>
+      <c r="D660" t="s">
+        <v>725</v>
+      </c>
+      <c r="E660">
+        <v>72828</v>
+      </c>
+      <c r="F660" t="s">
+        <v>874</v>
+      </c>
+      <c r="H660" t="s">
+        <v>874</v>
+      </c>
+      <c r="I660" t="s">
+        <v>874</v>
+      </c>
+      <c r="J660" t="s">
+        <v>874</v>
+      </c>
+      <c r="K660">
+        <v>119741</v>
+      </c>
+      <c r="L660" t="s">
+        <v>874</v>
+      </c>
+      <c r="M660" t="s">
+        <v>874</v>
+      </c>
+      <c r="N660" t="s">
+        <v>874</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B26ABFC-764A-46A4-9C6C-1B7AE10100AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AAA8B4-625C-42E3-853D-DD3FB29D2CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="900" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7920" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7922" uniqueCount="875">
   <si>
     <t>mlb_name</t>
   </si>
@@ -3015,7 +3015,7 @@
   <dimension ref="A1:N660"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="K661" sqref="K661"/>
+      <selection activeCell="G660" sqref="G660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31898,6 +31898,9 @@
       <c r="F659" t="s">
         <v>664</v>
       </c>
+      <c r="G659" t="s">
+        <v>766</v>
+      </c>
       <c r="H659" t="s">
         <v>664</v>
       </c>
@@ -31938,6 +31941,9 @@
       </c>
       <c r="F660" t="s">
         <v>874</v>
+      </c>
+      <c r="G660" t="s">
+        <v>766</v>
       </c>
       <c r="H660" t="s">
         <v>874</v>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AAA8B4-625C-42E3-853D-DD3FB29D2CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE2112E-7423-4D0B-95AD-36B9437C9A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="900" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7922" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7934" uniqueCount="876">
   <si>
     <t>mlb_name</t>
   </si>
@@ -2645,6 +2645,9 @@
   </si>
   <si>
     <t>John Doe</t>
+  </si>
+  <si>
+    <t>Mike Jones</t>
   </si>
 </sst>
 </file>
@@ -3012,10 +3015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N660"/>
+  <dimension ref="A1:N661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="G660" sqref="G660"/>
+    <sheetView tabSelected="1" topLeftCell="A640" workbookViewId="0">
+      <selection activeCell="N661" sqref="N661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31967,6 +31970,50 @@
         <v>874</v>
       </c>
     </row>
+    <row r="661" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>875</v>
+      </c>
+      <c r="B661" t="s">
+        <v>693</v>
+      </c>
+      <c r="C661" t="s">
+        <v>723</v>
+      </c>
+      <c r="D661" t="s">
+        <v>725</v>
+      </c>
+      <c r="E661">
+        <v>83929</v>
+      </c>
+      <c r="F661" t="s">
+        <v>875</v>
+      </c>
+      <c r="G661" t="s">
+        <v>766</v>
+      </c>
+      <c r="H661" t="s">
+        <v>875</v>
+      </c>
+      <c r="I661" t="s">
+        <v>875</v>
+      </c>
+      <c r="J661" t="s">
+        <v>875</v>
+      </c>
+      <c r="K661">
+        <v>220852</v>
+      </c>
+      <c r="L661" t="s">
+        <v>875</v>
+      </c>
+      <c r="M661" t="s">
+        <v>875</v>
+      </c>
+      <c r="N661" t="s">
+        <v>875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api/hitters.xlsx
+++ b/api/hitters.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29115"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\api\api\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735A6F35-8E7C-44DF-B03D-44301767DA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="12" yWindow="12" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2653,8 +2659,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2717,13 +2723,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2761,7 +2775,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2795,6 +2809,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2829,9 +2844,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3004,14 +3020,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N666"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="N255" sqref="N255"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3055,7 +3076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3099,7 +3120,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3143,7 +3164,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3187,7 +3208,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -3231,7 +3252,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -3275,7 +3296,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3319,7 +3340,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3363,7 +3384,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3404,7 +3425,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3448,7 +3469,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3492,7 +3513,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -3536,7 +3557,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3580,7 +3601,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3624,7 +3645,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -3668,7 +3689,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3712,7 +3733,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3756,7 +3777,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -3800,7 +3821,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -3844,7 +3865,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3888,7 +3909,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3932,7 +3953,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -3973,7 +3994,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -4017,7 +4038,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -4061,7 +4082,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -4105,7 +4126,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -4149,7 +4170,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -4193,7 +4214,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -4237,7 +4258,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -4281,7 +4302,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -4325,7 +4346,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -4369,7 +4390,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -4413,7 +4434,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -4457,7 +4478,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -4501,7 +4522,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -4545,7 +4566,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -4589,7 +4610,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -4633,7 +4654,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -4677,7 +4698,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -4721,7 +4742,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -4765,7 +4786,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -4809,7 +4830,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -4853,7 +4874,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -4897,7 +4918,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -4941,7 +4962,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -4985,7 +5006,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -5029,7 +5050,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -5073,7 +5094,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -5117,7 +5138,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -5161,7 +5182,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5205,7 +5226,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -5249,7 +5270,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -5293,7 +5314,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -5337,7 +5358,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -5381,7 +5402,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5425,7 +5446,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -5469,7 +5490,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -5513,7 +5534,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -5557,7 +5578,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -5601,7 +5622,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -5645,7 +5666,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -5689,7 +5710,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -5733,7 +5754,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -5777,7 +5798,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -5821,7 +5842,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -5865,7 +5886,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -5909,7 +5930,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -5953,7 +5974,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -5997,7 +6018,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -6041,7 +6062,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -6085,7 +6106,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -6129,7 +6150,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -6173,7 +6194,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -6217,7 +6238,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -6261,7 +6282,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -6305,7 +6326,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -6349,7 +6370,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -6393,7 +6414,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -6434,7 +6455,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -6478,7 +6499,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -6522,7 +6543,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -6566,7 +6587,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -6610,7 +6631,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -6654,7 +6675,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -6698,7 +6719,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -6742,7 +6763,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -6786,7 +6807,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -6830,7 +6851,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -6874,7 +6895,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -6918,7 +6939,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -6962,7 +6983,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -7006,7 +7027,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -7050,7 +7071,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -7091,7 +7112,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -7135,7 +7156,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>107</v>
       </c>
@@ -7179,7 +7200,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -7223,7 +7244,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -7267,7 +7288,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -7311,7 +7332,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -7355,7 +7376,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -7399,7 +7420,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -7443,7 +7464,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -7487,7 +7508,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -7531,7 +7552,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -7575,7 +7596,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -7619,7 +7640,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -7663,7 +7684,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -7707,7 +7728,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -7751,7 +7772,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -7795,7 +7816,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -7839,7 +7860,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -7883,7 +7904,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -7927,7 +7948,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -7971,7 +7992,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -8015,7 +8036,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -8059,7 +8080,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -8103,7 +8124,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -8147,7 +8168,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -8191,7 +8212,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -8235,7 +8256,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -8279,7 +8300,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -8323,7 +8344,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -8367,7 +8388,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -8411,7 +8432,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -8455,7 +8476,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -8499,7 +8520,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -8543,7 +8564,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -8584,7 +8605,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -8628,7 +8649,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -8672,7 +8693,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -8716,7 +8737,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -8760,7 +8781,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -8804,7 +8825,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -8848,7 +8869,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -8892,7 +8913,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -8936,7 +8957,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -8980,7 +9001,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -9024,7 +9045,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -9068,7 +9089,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -9112,7 +9133,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -9156,7 +9177,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -9200,7 +9221,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -9244,7 +9265,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -9288,7 +9309,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -9332,7 +9353,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -9376,7 +9397,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -9420,7 +9441,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -9464,7 +9485,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -9508,7 +9529,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -9552,7 +9573,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -9596,7 +9617,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -9640,7 +9661,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -9684,7 +9705,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -9728,7 +9749,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -9769,7 +9790,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -9813,7 +9834,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -9857,7 +9878,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -9901,7 +9922,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -9945,7 +9966,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -9989,7 +10010,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -10033,7 +10054,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -10077,7 +10098,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -10121,7 +10142,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -10165,7 +10186,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -10209,7 +10230,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -10253,7 +10274,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -10297,7 +10318,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -10341,7 +10362,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -10385,7 +10406,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -10429,7 +10450,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -10473,7 +10494,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -10517,7 +10538,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -10561,7 +10582,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -10605,7 +10626,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -10649,7 +10670,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -10693,7 +10714,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -10737,7 +10758,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -10781,7 +10802,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -10825,7 +10846,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -10869,7 +10890,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -10913,7 +10934,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -10957,7 +10978,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -11001,7 +11022,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -11045,7 +11066,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -11089,7 +11110,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -11133,7 +11154,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -11177,7 +11198,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -11221,7 +11242,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -11265,7 +11286,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -11309,7 +11330,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -11353,7 +11374,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -11397,7 +11418,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -11441,7 +11462,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -11485,7 +11506,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -11529,7 +11550,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -11573,7 +11594,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -11617,7 +11638,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -11661,7 +11682,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -11705,7 +11726,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -11749,7 +11770,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>212</v>
       </c>
@@ -11793,7 +11814,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>213</v>
       </c>
@@ -11837,7 +11858,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -11881,7 +11902,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -11925,7 +11946,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>216</v>
       </c>
@@ -11969,7 +11990,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>217</v>
       </c>
@@ -12013,7 +12034,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>218</v>
       </c>
@@ -12057,7 +12078,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>219</v>
       </c>
@@ -12101,7 +12122,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>220</v>
       </c>
@@ -12145,7 +12166,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>221</v>
       </c>
@@ -12189,7 +12210,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>222</v>
       </c>
@@ -12233,7 +12254,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>223</v>
       </c>
@@ -12277,7 +12298,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>224</v>
       </c>
@@ -12321,7 +12342,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>225</v>
       </c>
@@ -12365,7 +12386,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -12409,7 +12430,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>227</v>
       </c>
@@ -12453,7 +12474,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>228</v>
       </c>
@@ -12497,7 +12518,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>229</v>
       </c>
@@ -12541,7 +12562,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>230</v>
       </c>
@@ -12585,7 +12606,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>231</v>
       </c>
@@ -12629,7 +12650,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>232</v>
       </c>
@@ -12670,7 +12691,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>233</v>
       </c>
@@ -12714,7 +12735,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>234</v>
       </c>
@@ -12758,7 +12779,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>235</v>
       </c>
@@ -12802,7 +12823,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>236</v>
       </c>
@@ -12846,7 +12867,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>237</v>
       </c>
@@ -12890,7 +12911,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>238</v>
       </c>
@@ -12934,7 +12955,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>239</v>
       </c>
@@ -12978,7 +12999,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>240</v>
       </c>
@@ -13022,7 +13043,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>241</v>
       </c>
@@ -13066,7 +13087,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>242</v>
       </c>
@@ -13110,7 +13131,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>243</v>
       </c>
@@ -13151,7 +13172,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>244</v>
       </c>
@@ -13195,7 +13216,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -13239,7 +13260,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>246</v>
       </c>
@@ -13283,7 +13304,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>247</v>
       </c>
@@ -13327,7 +13348,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>248</v>
       </c>
@@ -13371,7 +13392,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>249</v>
       </c>
@@ -13415,7 +13436,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -13459,7 +13480,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>251</v>
       </c>
@@ -13503,7 +13524,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -13547,7 +13568,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -13591,7 +13612,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>254</v>
       </c>
@@ -13635,7 +13656,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>255</v>
       </c>
@@ -13679,7 +13700,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>256</v>
       </c>
@@ -13723,7 +13744,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>257</v>
       </c>
@@ -13767,7 +13788,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>258</v>
       </c>
@@ -13811,7 +13832,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>259</v>
       </c>
@@ -13855,7 +13876,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>260</v>
       </c>
@@ -13899,7 +13920,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>261</v>
       </c>
@@ -13943,7 +13964,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>262</v>
       </c>
@@ -13987,7 +14008,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>263</v>
       </c>
@@ -14031,7 +14052,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>264</v>
       </c>
@@ -14075,7 +14096,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>265</v>
       </c>
@@ -14119,7 +14140,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>266</v>
       </c>
@@ -14163,7 +14184,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>267</v>
       </c>
@@ -14207,7 +14228,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>268</v>
       </c>
@@ -14251,7 +14272,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>269</v>
       </c>
@@ -14295,7 +14316,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>270</v>
       </c>
@@ -14339,7 +14360,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>271</v>
       </c>
@@ -14383,7 +14404,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>272</v>
       </c>
@@ -14427,7 +14448,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>273</v>
       </c>
@@ -14471,7 +14492,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>274</v>
       </c>
@@ -14515,7 +14536,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>275</v>
       </c>
@@ -14559,7 +14580,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>276</v>
       </c>
@@ -14603,7 +14624,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>277</v>
       </c>
@@ -14647,7 +14668,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>278</v>
       </c>
@@ -14691,7 +14712,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>279</v>
       </c>
@@ -14735,7 +14756,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>280</v>
       </c>
@@ -14779,7 +14800,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>281</v>
       </c>
@@ -14823,7 +14844,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>282</v>
       </c>
@@ -14867,7 +14888,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>283</v>
       </c>
@@ -14911,7 +14932,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>284</v>
       </c>
@@ -14955,7 +14976,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>285</v>
       </c>
@@ -14999,7 +15020,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>286</v>
       </c>
@@ -15043,7 +15064,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>21</v>
       </c>
@@ -15087,7 +15108,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>287</v>
       </c>
@@ -15131,7 +15152,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>288</v>
       </c>
@@ -15175,7 +15196,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>289</v>
       </c>
@@ -15219,7 +15240,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>290</v>
       </c>
@@ -15263,7 +15284,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>291</v>
       </c>
@@ -15307,7 +15328,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>292</v>
       </c>
@@ -15351,7 +15372,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -15395,7 +15416,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>294</v>
       </c>
@@ -15439,7 +15460,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>295</v>
       </c>
@@ -15483,7 +15504,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>296</v>
       </c>
@@ -15527,7 +15548,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>297</v>
       </c>
@@ -15571,7 +15592,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>298</v>
       </c>
@@ -15615,7 +15636,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>299</v>
       </c>
@@ -15659,7 +15680,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>300</v>
       </c>
@@ -15703,7 +15724,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>301</v>
       </c>
@@ -15747,7 +15768,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>302</v>
       </c>
@@ -15791,7 +15812,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>303</v>
       </c>
@@ -15835,7 +15856,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>304</v>
       </c>
@@ -15879,7 +15900,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>305</v>
       </c>
@@ -15923,7 +15944,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>306</v>
       </c>
@@ -15967,7 +15988,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>307</v>
       </c>
@@ -16011,7 +16032,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>308</v>
       </c>
@@ -16055,7 +16076,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>309</v>
       </c>
@@ -16099,7 +16120,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>310</v>
       </c>
@@ -16143,7 +16164,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>311</v>
       </c>
@@ -16187,7 +16208,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>312</v>
       </c>
@@ -16231,7 +16252,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>313</v>
       </c>
@@ -16275,7 +16296,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>314</v>
       </c>
@@ -16319,7 +16340,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>315</v>
       </c>
@@ -16363,7 +16384,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>316</v>
       </c>
@@ -16407,7 +16428,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>317</v>
       </c>
@@ -16451,7 +16472,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>318</v>
       </c>
@@ -16495,7 +16516,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>139</v>
       </c>
@@ -16539,7 +16560,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>319</v>
       </c>
@@ -16583,7 +16604,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>320</v>
       </c>
@@ -16627,7 +16648,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>321</v>
       </c>
@@ -16671,7 +16692,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>322</v>
       </c>
@@ -16715,7 +16736,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>323</v>
       </c>
@@ -16759,7 +16780,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>324</v>
       </c>
@@ -16803,7 +16824,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>325</v>
       </c>
@@ -16847,7 +16868,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>326</v>
       </c>
@@ -16891,7 +16912,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>327</v>
       </c>
@@ -16932,7 +16953,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>328</v>
       </c>
@@ -16976,7 +16997,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>329</v>
       </c>
@@ -17020,7 +17041,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>330</v>
       </c>
@@ -17064,7 +17085,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>331</v>
       </c>
@@ -17105,7 +17126,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>332</v>
       </c>
@@ -17149,7 +17170,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>333</v>
       </c>
@@ -17193,7 +17214,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>334</v>
       </c>
@@ -17237,7 +17258,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>335</v>
       </c>
@@ -17281,7 +17302,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>336</v>
       </c>
@@ -17325,7 +17346,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>337</v>
       </c>
@@ -17369,7 +17390,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>338</v>
       </c>
@@ -17413,7 +17434,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>339</v>
       </c>
@@ -17457,7 +17478,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>340</v>
       </c>
@@ -17501,7 +17522,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>341</v>
       </c>
@@ -17545,7 +17566,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>342</v>
       </c>
@@ -17589,7 +17610,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>343</v>
       </c>
@@ -17633,7 +17654,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>344</v>
       </c>
@@ -17677,7 +17698,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>345</v>
       </c>
@@ -17721,7 +17742,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>293</v>
       </c>
@@ -17762,7 +17783,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>346</v>
       </c>
@@ -17806,7 +17827,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>347</v>
       </c>
@@ -17850,7 +17871,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>348</v>
       </c>
@@ -17894,7 +17915,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>349</v>
       </c>
@@ -17938,7 +17959,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>350</v>
       </c>
@@ -17982,7 +18003,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>351</v>
       </c>
@@ -18026,7 +18047,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>352</v>
       </c>
@@ -18070,7 +18091,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>353</v>
       </c>
@@ -18114,7 +18135,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>354</v>
       </c>
@@ -18158,7 +18179,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>355</v>
       </c>
@@ -18202,7 +18223,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>356</v>
       </c>
@@ -18246,7 +18267,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>357</v>
       </c>
@@ -18290,7 +18311,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>358</v>
       </c>
@@ -18334,7 +18355,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>359</v>
       </c>
@@ -18378,7 +18399,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>360</v>
       </c>
@@ -18422,7 +18443,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>361</v>
       </c>
@@ -18466,7 +18487,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>362</v>
       </c>
@@ -18510,7 +18531,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>363</v>
       </c>
@@ -18554,7 +18575,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>364</v>
       </c>
@@ -18598,7 +18619,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>365</v>
       </c>
@@ -18642,7 +18663,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>366</v>
       </c>
@@ -18686,7 +18707,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>367</v>
       </c>
@@ -18730,7 +18751,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>368</v>
       </c>
@@ -18774,7 +18795,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>369</v>
       </c>
@@ -18818,7 +18839,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>370</v>
       </c>
@@ -18862,7 +18883,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>371</v>
       </c>
@@ -18906,7 +18927,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>372</v>
       </c>
@@ -18950,7 +18971,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>373</v>
       </c>
@@ -18994,7 +19015,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>374</v>
       </c>
@@ -19038,7 +19059,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>375</v>
       </c>
@@ -19082,7 +19103,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>376</v>
       </c>
@@ -19126,7 +19147,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>377</v>
       </c>
@@ -19170,7 +19191,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>378</v>
       </c>
@@ -19214,7 +19235,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>379</v>
       </c>
@@ -19258,7 +19279,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>380</v>
       </c>
@@ -19302,7 +19323,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>381</v>
       </c>
@@ -19346,7 +19367,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>382</v>
       </c>
@@ -19390,7 +19411,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>383</v>
       </c>
@@ -19434,7 +19455,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>384</v>
       </c>
@@ -19478,7 +19499,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>385</v>
       </c>
@@ -19522,7 +19543,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>386</v>
       </c>
@@ -19566,7 +19587,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>387</v>
       </c>
@@ -19610,7 +19631,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>388</v>
       </c>
@@ -19654,7 +19675,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>389</v>
       </c>
@@ -19698,7 +19719,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>390</v>
       </c>
@@ -19742,7 +19763,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>391</v>
       </c>
@@ -19786,7 +19807,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>392</v>
       </c>
@@ -19830,7 +19851,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>393</v>
       </c>
@@ -19874,7 +19895,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>394</v>
       </c>
@@ -19918,7 +19939,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>395</v>
       </c>
@@ -19962,7 +19983,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>396</v>
       </c>
@@ -20006,7 +20027,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>397</v>
       </c>
@@ -20050,7 +20071,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>398</v>
       </c>
@@ -20094,7 +20115,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>399</v>
       </c>
@@ -20138,7 +20159,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>400</v>
       </c>
@@ -20182,7 +20203,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>401</v>
       </c>
@@ -20226,7 +20247,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>402</v>
       </c>
@@ -20270,7 +20291,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="394" spans="1:14">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>403</v>
       </c>
@@ -20314,7 +20335,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>404</v>
       </c>
@@ -20358,7 +20379,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="396" spans="1:14">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>405</v>
       </c>
@@ -20402,7 +20423,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="397" spans="1:14">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>406</v>
       </c>
@@ -20446,7 +20467,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>407</v>
       </c>
@@ -20490,7 +20511,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>408</v>
       </c>
@@ -20534,7 +20555,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="400" spans="1:14">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>409</v>
       </c>
@@ -20578,7 +20599,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>410</v>
       </c>
@@ -20622,7 +20643,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="402" spans="1:14">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>411</v>
       </c>
@@ -20666,7 +20687,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>412</v>
       </c>
@@ -20710,7 +20731,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="404" spans="1:14">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>413</v>
       </c>
@@ -20754,7 +20775,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>414</v>
       </c>
@@ -20798,7 +20819,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="406" spans="1:14">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>415</v>
       </c>
@@ -20842,7 +20863,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>416</v>
       </c>
@@ -20886,7 +20907,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="408" spans="1:14">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>417</v>
       </c>
@@ -20930,7 +20951,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>418</v>
       </c>
@@ -20974,7 +20995,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="410" spans="1:14">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>419</v>
       </c>
@@ -21018,7 +21039,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>420</v>
       </c>
@@ -21062,7 +21083,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="412" spans="1:14">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>421</v>
       </c>
@@ -21106,7 +21127,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>422</v>
       </c>
@@ -21150,7 +21171,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="414" spans="1:14">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>423</v>
       </c>
@@ -21194,7 +21215,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>424</v>
       </c>
@@ -21238,7 +21259,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="416" spans="1:14">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>425</v>
       </c>
@@ -21282,7 +21303,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="417" spans="1:14">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>426</v>
       </c>
@@ -21326,7 +21347,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="418" spans="1:14">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>427</v>
       </c>
@@ -21370,7 +21391,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="419" spans="1:14">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>428</v>
       </c>
@@ -21414,7 +21435,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="420" spans="1:14">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>429</v>
       </c>
@@ -21458,7 +21479,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="421" spans="1:14">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>430</v>
       </c>
@@ -21502,7 +21523,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="422" spans="1:14">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>431</v>
       </c>
@@ -21546,7 +21567,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="423" spans="1:14">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>432</v>
       </c>
@@ -21590,7 +21611,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="424" spans="1:14">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>433</v>
       </c>
@@ -21634,7 +21655,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="425" spans="1:14">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>434</v>
       </c>
@@ -21678,7 +21699,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="426" spans="1:14">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>435</v>
       </c>
@@ -21722,7 +21743,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="427" spans="1:14">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>436</v>
       </c>
@@ -21766,7 +21787,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="428" spans="1:14">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>437</v>
       </c>
@@ -21810,7 +21831,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="429" spans="1:14">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>438</v>
       </c>
@@ -21854,7 +21875,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="430" spans="1:14">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>439</v>
       </c>
@@ -21898,7 +21919,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="431" spans="1:14">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>440</v>
       </c>
@@ -21939,7 +21960,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="432" spans="1:14">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>441</v>
       </c>
@@ -21983,7 +22004,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="433" spans="1:14">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>442</v>
       </c>
@@ -22027,7 +22048,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="434" spans="1:14">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>443</v>
       </c>
@@ -22071,7 +22092,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="435" spans="1:14">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>444</v>
       </c>
@@ -22115,7 +22136,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="436" spans="1:14">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>445</v>
       </c>
@@ -22159,7 +22180,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="437" spans="1:14">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>446</v>
       </c>
@@ -22203,7 +22224,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="438" spans="1:14">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>447</v>
       </c>
@@ -22247,7 +22268,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="439" spans="1:14">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>448</v>
       </c>
@@ -22291,7 +22312,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="440" spans="1:14">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>449</v>
       </c>
@@ -22335,7 +22356,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="441" spans="1:14">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>450</v>
       </c>
@@ -22379,7 +22400,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="442" spans="1:14">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>451</v>
       </c>
@@ -22423,7 +22444,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="443" spans="1:14">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>452</v>
       </c>
@@ -22467,7 +22488,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="444" spans="1:14">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>453</v>
       </c>
@@ -22511,7 +22532,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="445" spans="1:14">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>454</v>
       </c>
@@ -22555,7 +22576,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="446" spans="1:14">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>455</v>
       </c>
@@ -22599,7 +22620,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="447" spans="1:14">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>456</v>
       </c>
@@ -22643,7 +22664,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="448" spans="1:14">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>457</v>
       </c>
@@ -22687,7 +22708,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="449" spans="1:14">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>458</v>
       </c>
@@ -22731,7 +22752,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="450" spans="1:14">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>459</v>
       </c>
@@ -22775,7 +22796,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="451" spans="1:14">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>460</v>
       </c>
@@ -22819,7 +22840,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="452" spans="1:14">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>461</v>
       </c>
@@ -22863,7 +22884,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="453" spans="1:14">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>462</v>
       </c>
@@ -22907,7 +22928,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="454" spans="1:14">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>463</v>
       </c>
@@ -22951,7 +22972,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="455" spans="1:14">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>464</v>
       </c>
@@ -22995,7 +23016,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="456" spans="1:14">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>465</v>
       </c>
@@ -23039,7 +23060,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="457" spans="1:14">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>466</v>
       </c>
@@ -23083,7 +23104,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="458" spans="1:14">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>467</v>
       </c>
@@ -23127,7 +23148,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="459" spans="1:14">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>468</v>
       </c>
@@ -23171,7 +23192,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="460" spans="1:14">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>469</v>
       </c>
@@ -23215,7 +23236,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="461" spans="1:14">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>470</v>
       </c>
@@ -23259,7 +23280,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="462" spans="1:14">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>471</v>
       </c>
@@ -23303,7 +23324,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="463" spans="1:14">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>472</v>
       </c>
@@ -23347,7 +23368,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="464" spans="1:14">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>473</v>
       </c>
@@ -23391,7 +23412,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="465" spans="1:14">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>474</v>
       </c>
@@ -23435,7 +23456,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="466" spans="1:14">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>475</v>
       </c>
@@ -23479,7 +23500,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="467" spans="1:14">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>476</v>
       </c>
@@ -23523,7 +23544,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="468" spans="1:14">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>477</v>
       </c>
@@ -23567,7 +23588,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="469" spans="1:14">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>478</v>
       </c>
@@ -23611,7 +23632,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="470" spans="1:14">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>479</v>
       </c>
@@ -23655,7 +23676,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="471" spans="1:14">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>480</v>
       </c>
@@ -23699,7 +23720,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="472" spans="1:14">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>481</v>
       </c>
@@ -23743,7 +23764,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="473" spans="1:14">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>482</v>
       </c>
@@ -23787,7 +23808,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="474" spans="1:14">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>483</v>
       </c>
@@ -23831,7 +23852,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="475" spans="1:14">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>484</v>
       </c>
@@ -23875,7 +23896,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="476" spans="1:14">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>485</v>
       </c>
@@ -23919,7 +23940,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="477" spans="1:14">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>486</v>
       </c>
@@ -23963,7 +23984,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="478" spans="1:14">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>487</v>
       </c>
@@ -24007,7 +24028,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="479" spans="1:14">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>488</v>
       </c>
@@ -24051,7 +24072,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="480" spans="1:14">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>489</v>
       </c>
@@ -24095,7 +24116,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="481" spans="1:14">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>490</v>
       </c>
@@ -24139,7 +24160,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="482" spans="1:14">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>491</v>
       </c>
@@ -24183,7 +24204,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="483" spans="1:14">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>492</v>
       </c>
@@ -24227,7 +24248,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="484" spans="1:14">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>493</v>
       </c>
@@ -24271,7 +24292,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="485" spans="1:14">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>494</v>
       </c>
@@ -24315,7 +24336,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="486" spans="1:14">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>495</v>
       </c>
@@ -24359,7 +24380,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="487" spans="1:14">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>496</v>
       </c>
@@ -24403,7 +24424,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="488" spans="1:14">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>497</v>
       </c>
@@ -24447,7 +24468,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="489" spans="1:14">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>498</v>
       </c>
@@ -24491,7 +24512,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="490" spans="1:14">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>499</v>
       </c>
@@ -24535,7 +24556,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="491" spans="1:14">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>500</v>
       </c>
@@ -24579,7 +24600,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="492" spans="1:14">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>501</v>
       </c>
@@ -24623,7 +24644,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="493" spans="1:14">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>502</v>
       </c>
@@ -24667,7 +24688,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="494" spans="1:14">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>503</v>
       </c>
@@ -24711,7 +24732,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="495" spans="1:14">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>504</v>
       </c>
@@ -24755,7 +24776,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="496" spans="1:14">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>505</v>
       </c>
@@ -24799,7 +24820,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="497" spans="1:14">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>506</v>
       </c>
@@ -24843,7 +24864,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="498" spans="1:14">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>507</v>
       </c>
@@ -24887,7 +24908,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="499" spans="1:14">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>508</v>
       </c>
@@ -24931,7 +24952,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="500" spans="1:14">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>509</v>
       </c>
@@ -24975,7 +24996,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="501" spans="1:14">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>510</v>
       </c>
@@ -25019,7 +25040,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="502" spans="1:14">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>511</v>
       </c>
@@ -25063,7 +25084,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="503" spans="1:14">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>512</v>
       </c>
@@ -25107,7 +25128,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="504" spans="1:14">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>513</v>
       </c>
@@ -25151,7 +25172,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="505" spans="1:14">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>514</v>
       </c>
@@ -25195,7 +25216,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="506" spans="1:14">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>515</v>
       </c>
@@ -25239,7 +25260,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="507" spans="1:14">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>516</v>
       </c>
@@ -25283,7 +25304,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="508" spans="1:14">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>517</v>
       </c>
@@ -25327,7 +25348,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="509" spans="1:14">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>518</v>
       </c>
@@ -25371,7 +25392,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="510" spans="1:14">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>519</v>
       </c>
@@ -25415,7 +25436,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="511" spans="1:14">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>520</v>
       </c>
@@ -25459,7 +25480,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="512" spans="1:14">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>521</v>
       </c>
@@ -25503,7 +25524,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="513" spans="1:14">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>522</v>
       </c>
@@ -25547,7 +25568,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="514" spans="1:14">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>523</v>
       </c>
@@ -25591,7 +25612,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="515" spans="1:14">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>524</v>
       </c>
@@ -25635,7 +25656,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="516" spans="1:14">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>525</v>
       </c>
@@ -25679,7 +25700,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="517" spans="1:14">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>526</v>
       </c>
@@ -25723,7 +25744,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="518" spans="1:14">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>527</v>
       </c>
@@ -25767,7 +25788,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="519" spans="1:14">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>528</v>
       </c>
@@ -25811,7 +25832,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="520" spans="1:14">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>529</v>
       </c>
@@ -25855,7 +25876,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="521" spans="1:14">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>530</v>
       </c>
@@ -25899,7 +25920,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="522" spans="1:14">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>531</v>
       </c>
@@ -25943,7 +25964,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="523" spans="1:14">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>532</v>
       </c>
@@ -25987,7 +26008,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="524" spans="1:14">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>533</v>
       </c>
@@ -26031,7 +26052,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="525" spans="1:14">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>534</v>
       </c>
@@ -26075,7 +26096,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="526" spans="1:14">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>535</v>
       </c>
@@ -26119,7 +26140,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="527" spans="1:14">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>536</v>
       </c>
@@ -26163,7 +26184,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="528" spans="1:14">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>537</v>
       </c>
@@ -26207,7 +26228,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="529" spans="1:14">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>538</v>
       </c>
@@ -26251,7 +26272,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="530" spans="1:14">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>539</v>
       </c>
@@ -26295,7 +26316,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="531" spans="1:14">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>540</v>
       </c>
@@ -26339,7 +26360,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="532" spans="1:14">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>541</v>
       </c>
@@ -26383,7 +26404,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="533" spans="1:14">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>542</v>
       </c>
@@ -26427,7 +26448,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="534" spans="1:14">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>543</v>
       </c>
@@ -26471,7 +26492,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="535" spans="1:14">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>544</v>
       </c>
@@ -26515,7 +26536,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="536" spans="1:14">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>545</v>
       </c>
@@ -26559,7 +26580,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="537" spans="1:14">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>546</v>
       </c>
@@ -26603,7 +26624,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="538" spans="1:14">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>547</v>
       </c>
@@ -26647,7 +26668,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="539" spans="1:14">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>548</v>
       </c>
@@ -26691,7 +26712,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="540" spans="1:14">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>549</v>
       </c>
@@ -26735,7 +26756,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="541" spans="1:14">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>550</v>
       </c>
@@ -26779,7 +26800,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="542" spans="1:14">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>551</v>
       </c>
@@ -26823,7 +26844,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="543" spans="1:14">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>552</v>
       </c>
@@ -26867,7 +26888,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="544" spans="1:14">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>553</v>
       </c>
@@ -26911,7 +26932,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="545" spans="1:14">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>554</v>
       </c>
@@ -26955,7 +26976,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="546" spans="1:14">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>555</v>
       </c>
@@ -26999,7 +27020,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="547" spans="1:14">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>556</v>
       </c>
@@ -27043,7 +27064,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="548" spans="1:14">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>557</v>
       </c>
@@ -27087,7 +27108,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="549" spans="1:14">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>558</v>
       </c>
@@ -27131,7 +27152,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="550" spans="1:14">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>559</v>
       </c>
@@ -27175,7 +27196,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="551" spans="1:14">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>560</v>
       </c>
@@ -27219,7 +27240,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="552" spans="1:14">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>561</v>
       </c>
@@ -27263,7 +27284,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="553" spans="1:14">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>562</v>
       </c>
@@ -27307,7 +27328,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="554" spans="1:14">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>563</v>
       </c>
@@ -27351,7 +27372,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="555" spans="1:14">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>564</v>
       </c>
@@ -27395,7 +27416,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="556" spans="1:14">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>565</v>
       </c>
@@ -27439,7 +27460,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="557" spans="1:14">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>566</v>
       </c>
@@ -27483,7 +27504,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="558" spans="1:14">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>567</v>
       </c>
@@ -27527,7 +27548,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="559" spans="1:14">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>568</v>
       </c>
@@ -27571,7 +27592,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="560" spans="1:14">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>569</v>
       </c>
@@ -27615,7 +27636,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="561" spans="1:14">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>570</v>
       </c>
@@ -27659,7 +27680,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="562" spans="1:14">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>571</v>
       </c>
@@ -27703,7 +27724,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="563" spans="1:14">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>572</v>
       </c>
@@ -27747,7 +27768,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="564" spans="1:14">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>573</v>
       </c>
@@ -27791,7 +27812,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="565" spans="1:14">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>574</v>
       </c>
@@ -27835,7 +27856,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="566" spans="1:14">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>575</v>
       </c>
@@ -27879,7 +27900,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="567" spans="1:14">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>576</v>
       </c>
@@ -27923,7 +27944,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="568" spans="1:14">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>577</v>
       </c>
@@ -27967,7 +27988,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="569" spans="1:14">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>578</v>
       </c>
@@ -28011,7 +28032,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="570" spans="1:14">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>579</v>
       </c>
@@ -28055,7 +28076,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="571" spans="1:14">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>580</v>
       </c>
@@ -28099,7 +28120,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="572" spans="1:14">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>581</v>
       </c>
@@ -28143,7 +28164,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="573" spans="1:14">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>582</v>
       </c>
@@ -28187,7 +28208,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="574" spans="1:14">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>583</v>
       </c>
@@ -28231,7 +28252,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="575" spans="1:14">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>584</v>
       </c>
@@ -28275,7 +28296,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="576" spans="1:14">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>585</v>
       </c>
@@ -28319,7 +28340,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="577" spans="1:14">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>586</v>
       </c>
@@ -28363,7 +28384,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="578" spans="1:14">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>587</v>
       </c>
@@ -28407,7 +28428,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="579" spans="1:14">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>588</v>
       </c>
@@ -28451,7 +28472,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="580" spans="1:14">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>589</v>
       </c>
@@ -28495,7 +28516,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="581" spans="1:14">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>590</v>
       </c>
@@ -28539,7 +28560,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="582" spans="1:14">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>591</v>
       </c>
@@ -28580,7 +28601,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="583" spans="1:14">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>592</v>
       </c>
@@ -28621,7 +28642,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="584" spans="1:14">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>593</v>
       </c>
@@ -28665,7 +28686,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="585" spans="1:14">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>594</v>
       </c>
@@ -28709,7 +28730,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="586" spans="1:14">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>595</v>
       </c>
@@ -28753,7 +28774,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="587" spans="1:14">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>596</v>
       </c>
@@ -28797,7 +28818,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="588" spans="1:14">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>597</v>
       </c>
@@ -28841,7 +28862,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="589" spans="1:14">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>598</v>
       </c>
@@ -28885,7 +28906,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="590" spans="1:14">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>599</v>
       </c>
@@ -28929,7 +28950,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="591" spans="1:14">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>600</v>
       </c>
@@ -28973,7 +28994,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="592" spans="1:14">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>601</v>
       </c>
@@ -29017,7 +29038,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="593" spans="1:14">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>602</v>
       </c>
@@ -29061,7 +29082,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="594" spans="1:14">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>603</v>
       </c>
@@ -29105,7 +29126,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="595" spans="1:14">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>604</v>
       </c>
@@ -29149,7 +29170,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="596" spans="1:14">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>605</v>
       </c>
@@ -29190,7 +29211,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="597" spans="1:14">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>606</v>
       </c>
@@ -29234,7 +29255,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="598" spans="1:14">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>607</v>
       </c>
@@ -29278,7 +29299,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="599" spans="1:14">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>608</v>
       </c>
@@ -29319,7 +29340,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="600" spans="1:14">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>609</v>
       </c>
@@ -29363,7 +29384,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="601" spans="1:14">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>610</v>
       </c>
@@ -29404,7 +29425,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="602" spans="1:14">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>611</v>
       </c>
@@ -29448,7 +29469,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="603" spans="1:14">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>612</v>
       </c>
@@ -29492,7 +29513,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="604" spans="1:14">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>613</v>
       </c>
@@ -29533,7 +29554,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="605" spans="1:14">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>614</v>
       </c>
@@ -29577,7 +29598,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="606" spans="1:14">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>615</v>
       </c>
@@ -29621,7 +29642,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="607" spans="1:14">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>616</v>
       </c>
@@ -29665,7 +29686,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="608" spans="1:14">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>617</v>
       </c>
@@ -29706,7 +29727,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="609" spans="1:14">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>618</v>
       </c>
@@ -29750,7 +29771,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="610" spans="1:14">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>619</v>
       </c>
@@ -29791,7 +29812,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="611" spans="1:14">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>620</v>
       </c>
@@ -29832,7 +29853,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="612" spans="1:14">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>621</v>
       </c>
@@ -29873,7 +29894,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="613" spans="1:14">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>622</v>
       </c>
@@ -29914,7 +29935,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="614" spans="1:14">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>623</v>
       </c>
@@ -29955,7 +29976,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="615" spans="1:14">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>624</v>
       </c>
@@ -29999,7 +30020,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="616" spans="1:14">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>625</v>
       </c>
@@ -30043,7 +30064,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="617" spans="1:14">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>626</v>
       </c>
@@ -30087,7 +30108,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="618" spans="1:14">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>627</v>
       </c>
@@ -30128,7 +30149,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="619" spans="1:14">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>628</v>
       </c>
@@ -30169,7 +30190,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="620" spans="1:14">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>629</v>
       </c>
@@ -30213,7 +30234,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="621" spans="1:14">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>259</v>
       </c>
@@ -30254,7 +30275,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="622" spans="1:14">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>630</v>
       </c>
@@ -30298,7 +30319,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="623" spans="1:14">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>631</v>
       </c>
@@ -30342,7 +30363,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="624" spans="1:14">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>632</v>
       </c>
@@ -30386,7 +30407,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="625" spans="1:14">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>262</v>
       </c>
@@ -30427,7 +30448,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="626" spans="1:14">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>263</v>
       </c>
@@ -30468,7 +30489,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="627" spans="1:14">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>633</v>
       </c>
@@ -30509,7 +30530,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="628" spans="1:14">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>340</v>
       </c>
@@ -30550,7 +30571,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="629" spans="1:14">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>264</v>
       </c>
@@ -30591,7 +30612,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="630" spans="1:14">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>634</v>
       </c>
@@ -30635,7 +30656,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="631" spans="1:14">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>635</v>
       </c>
@@ -30679,7 +30700,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="632" spans="1:14">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>636</v>
       </c>
@@ -30723,7 +30744,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="633" spans="1:14">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>637</v>
       </c>
@@ -30767,7 +30788,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="634" spans="1:14">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>638</v>
       </c>
@@ -30811,7 +30832,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="635" spans="1:14">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>639</v>
       </c>
@@ -30855,7 +30876,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="636" spans="1:14">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>640</v>
       </c>
@@ -30899,7 +30920,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="637" spans="1:14">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>641</v>
       </c>
@@ -30943,7 +30964,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="638" spans="1:14">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>642</v>
       </c>
@@ -30987,7 +31008,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="639" spans="1:14">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>643</v>
       </c>
@@ -31031,7 +31052,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="640" spans="1:14">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>644</v>
       </c>
@@ -31075,7 +31096,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="641" spans="1:14">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>645</v>
       </c>
@@ -31119,7 +31140,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="642" spans="1:14">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>646</v>
       </c>
@@ -31163,7 +31184,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="643" spans="1:14">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>647</v>
       </c>
@@ -31207,7 +31228,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="644" spans="1:14">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>648</v>
       </c>
@@ -31251,7 +31272,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="645" spans="1:14">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>649</v>
       </c>
@@ -31295,7 +31316,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="646" spans="1:14">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>650</v>
       </c>
@@ -31339,7 +31360,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="647" spans="1:14">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>651</v>
       </c>
@@ -31383,7 +31404,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="648" spans="1:14">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>652</v>
       </c>
@@ -31427,7 +31448,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="649" spans="1:14">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>653</v>
       </c>
@@ -31471,7 +31492,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="650" spans="1:14">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>654</v>
       </c>
@@ -31515,7 +31536,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="651" spans="1:14">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>655</v>
       </c>
@@ -31559,7 +31580,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="652" spans="1:14">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>656</v>
       </c>
@@ -31603,7 +31624,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="653" spans="1:14">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>657</v>
       </c>
@@ -31647,7 +31668,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="654" spans="1:14">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>658</v>
       </c>
@@ -31691,7 +31712,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="655" spans="1:14">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>659</v>
       </c>
@@ -31735,7 +31756,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="656" spans="1:14">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>660</v>
       </c>
@@ -31779,7 +31800,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="657" spans="1:14">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>661</v>
       </c>
@@ -31823,7 +31844,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="658" spans="1:14">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>662</v>
       </c>
@@ -31867,7 +31888,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="659" spans="1:14">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>663</v>
       </c>
@@ -31911,7 +31932,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="660" spans="1:14">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>664</v>
       </c>
@@ -31955,7 +31976,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="661" spans="1:14">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>665</v>
       </c>
@@ -31999,7 +32020,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="662" spans="1:14">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>666</v>
       </c>
@@ -32043,7 +32064,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="663" spans="1:14">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>667</v>
       </c>
@@ -32087,7 +32108,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="664" spans="1:14">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>668</v>
       </c>
@@ -32131,7 +32152,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="665" spans="1:14">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>669</v>
       </c>
@@ -32175,7 +32196,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="666" spans="1:14">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>670</v>
       </c>
